--- a/province_gis.xlsx
+++ b/province_gis.xlsx
@@ -538,46 +538,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.882920469702711</v>
+        <v>9.135054278951019</v>
       </c>
       <c r="H2" t="n">
-        <v>13.31769760646643</v>
+        <v>13.5126087215433</v>
       </c>
       <c r="I2" t="n">
-        <v>8.273383544595635</v>
+        <v>8.783367978990929</v>
       </c>
       <c r="J2" t="n">
-        <v>8.513391744088377</v>
+        <v>9.054111580654224</v>
       </c>
       <c r="K2" t="n">
-        <v>8.15256625343484</v>
+        <v>8.41410884703498</v>
       </c>
       <c r="L2" t="n">
-        <v>7.596435240855445</v>
+        <v>7.92212552526792</v>
       </c>
       <c r="M2" t="n">
-        <v>7.423154617320214</v>
+        <v>6.811002502469678</v>
       </c>
       <c r="N2" t="n">
-        <v>5.921280847383927</v>
+        <v>6.216379954757985</v>
       </c>
       <c r="O2" t="n">
-        <v>4.436328585717434</v>
+        <v>4.22514403900133</v>
       </c>
       <c r="P2" t="n">
-        <v>5.031573196361131</v>
+        <v>4.302677576835827</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.557345465925037</v>
+        <v>2.550216385545962</v>
       </c>
       <c r="R2" t="n">
-        <v>2.184608243466512</v>
+        <v>2.234242763355937</v>
       </c>
       <c r="S2" t="n">
-        <v>1.759407277837407</v>
+        <v>1.714215355421597</v>
       </c>
       <c r="T2" t="n">
-        <v>1.377731664501683</v>
+        <v>1.191783722066933</v>
       </c>
       <c r="U2" t="n">
         <v>0.3652051155021461</v>
@@ -611,49 +611,49 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.472503174065235</v>
+        <v>3.44334406775205</v>
       </c>
       <c r="H3" t="n">
-        <v>6.213173356389329</v>
+        <v>6.776688882907996</v>
       </c>
       <c r="I3" t="n">
-        <v>6.624136168449265</v>
+        <v>6.599093890701548</v>
       </c>
       <c r="J3" t="n">
-        <v>6.220172775779425</v>
+        <v>6.342667930971431</v>
       </c>
       <c r="K3" t="n">
-        <v>5.974649718553271</v>
+        <v>6.064810226703608</v>
       </c>
       <c r="L3" t="n">
-        <v>7.131959613123897</v>
+        <v>7.612661576767018</v>
       </c>
       <c r="M3" t="n">
-        <v>8.809500908954938</v>
+        <v>8.728902193441504</v>
       </c>
       <c r="N3" t="n">
-        <v>7.357153902402587</v>
+        <v>6.499330357727881</v>
       </c>
       <c r="O3" t="n">
-        <v>6.682480654421534</v>
+        <v>7.700452574741652</v>
       </c>
       <c r="P3" t="n">
-        <v>10.46857158446735</v>
+        <v>10.56573909100748</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.34722877555541</v>
+        <v>8.498110335521874</v>
       </c>
       <c r="R3" t="n">
-        <v>11.0645484773315</v>
+        <v>10.76186203620626</v>
       </c>
       <c r="S3" t="n">
-        <v>9.179349981010057</v>
+        <v>8.833356575662188</v>
       </c>
       <c r="T3" t="n">
-        <v>6.561108537348651</v>
+        <v>7.312953369943388</v>
       </c>
       <c r="U3" t="n">
-        <v>6.563882583318176</v>
+        <v>6.040434915093292</v>
       </c>
     </row>
     <row r="4">
@@ -684,49 +684,49 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>13.64052651772323</v>
+        <v>13.69955530477904</v>
       </c>
       <c r="H4" t="n">
-        <v>18.79684046658826</v>
+        <v>18.33258673686503</v>
       </c>
       <c r="I4" t="n">
-        <v>11.76586317270912</v>
+        <v>12.09687052109013</v>
       </c>
       <c r="J4" t="n">
-        <v>12.69341167302555</v>
+        <v>13.23104379578634</v>
       </c>
       <c r="K4" t="n">
-        <v>17.92285696148868</v>
+        <v>17.87175403149137</v>
       </c>
       <c r="L4" t="n">
-        <v>13.8674096136305</v>
+        <v>13.38518300381908</v>
       </c>
       <c r="M4" t="n">
-        <v>12.36111940745639</v>
+        <v>12.38188220878193</v>
       </c>
       <c r="N4" t="n">
-        <v>13.94463827367321</v>
+        <v>14.18163933418379</v>
       </c>
       <c r="O4" t="n">
-        <v>11.40088322620738</v>
+        <v>11.24417211803168</v>
       </c>
       <c r="P4" t="n">
-        <v>13.10629338931565</v>
+        <v>12.52460693295855</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.2528490454955</v>
+        <v>13.65555199723283</v>
       </c>
       <c r="R4" t="n">
-        <v>8.301208792458409</v>
+        <v>8.869500449174996</v>
       </c>
       <c r="S4" t="n">
-        <v>6.769691071888048</v>
+        <v>6.417250225433993</v>
       </c>
       <c r="T4" t="n">
-        <v>4.633128970455105</v>
+        <v>4.445886678010728</v>
       </c>
       <c r="U4" t="n">
-        <v>3.817761217369735</v>
+        <v>3.89702829349309</v>
       </c>
     </row>
     <row r="5">
@@ -757,49 +757,49 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>30.69132451449867</v>
+        <v>30.23449919589339</v>
       </c>
       <c r="H5" t="n">
-        <v>30.10461575455562</v>
+        <v>28.85175240726521</v>
       </c>
       <c r="I5" t="n">
-        <v>31.14559499737832</v>
+        <v>30.63720336711061</v>
       </c>
       <c r="J5" t="n">
-        <v>14.01846964051615</v>
+        <v>14.42042650400787</v>
       </c>
       <c r="K5" t="n">
-        <v>12.48361217732134</v>
+        <v>12.96956577298168</v>
       </c>
       <c r="L5" t="n">
-        <v>12.31711615985969</v>
+        <v>12.07475467913326</v>
       </c>
       <c r="M5" t="n">
-        <v>12.02087969800977</v>
+        <v>11.93975426130646</v>
       </c>
       <c r="N5" t="n">
-        <v>11.0535654126895</v>
+        <v>11.35182481751825</v>
       </c>
       <c r="O5" t="n">
-        <v>13.77342464298986</v>
+        <v>13.73803330325069</v>
       </c>
       <c r="P5" t="n">
-        <v>11.4935048720037</v>
+        <v>11.72687744182328</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.43177170612121</v>
+        <v>14.47771911476253</v>
       </c>
       <c r="R5" t="n">
-        <v>7.329365519450913</v>
+        <v>7.137546773789428</v>
       </c>
       <c r="S5" t="n">
-        <v>6.041675139307872</v>
+        <v>6.242681522556248</v>
       </c>
       <c r="T5" t="n">
-        <v>5.940314141029352</v>
+        <v>7.027971253082842</v>
       </c>
       <c r="U5" t="n">
-        <v>4.936836573024441</v>
+        <v>4.240178307688176</v>
       </c>
     </row>
     <row r="6">
@@ -830,49 +830,49 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>18.25668239375112</v>
+        <v>17.66610494180413</v>
       </c>
       <c r="H6" t="n">
-        <v>9.85564005170958</v>
+        <v>9.531797122727772</v>
       </c>
       <c r="I6" t="n">
-        <v>7.048040300250019</v>
+        <v>7.187959646367142</v>
       </c>
       <c r="J6" t="n">
-        <v>11.22053012647236</v>
+        <v>10.9797939749381</v>
       </c>
       <c r="K6" t="n">
-        <v>7.116074493098846</v>
+        <v>7.106170372894661</v>
       </c>
       <c r="L6" t="n">
-        <v>7.231635790036156</v>
+        <v>7.351652514427248</v>
       </c>
       <c r="M6" t="n">
-        <v>1.449346745534813</v>
+        <v>2.029424271711683</v>
       </c>
       <c r="N6" t="n">
-        <v>2.159964392344354</v>
+        <v>2.205724230709603</v>
       </c>
       <c r="O6" t="n">
-        <v>1.420360230904541</v>
+        <v>1.26328568243193</v>
       </c>
       <c r="P6" t="n">
-        <v>3.113495546876576</v>
+        <v>3.237275208749704</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.798614400075369</v>
+        <v>3.598648985113025</v>
       </c>
       <c r="R6" t="n">
-        <v>2.6189562327481</v>
+        <v>2.815923805496246</v>
       </c>
       <c r="S6" t="n">
-        <v>6.040598289740857</v>
+        <v>6.378875226230167</v>
       </c>
       <c r="T6" t="n">
-        <v>3.246250006804401</v>
+        <v>3.742888396458391</v>
       </c>
       <c r="U6" t="n">
-        <v>2.624890888696819</v>
+        <v>2.635828827688857</v>
       </c>
     </row>
     <row r="7">
@@ -903,49 +903,49 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>10.00625881916209</v>
+        <v>9.664183873653604</v>
       </c>
       <c r="H7" t="n">
-        <v>11.78195608401003</v>
+        <v>11.58936928770859</v>
       </c>
       <c r="I7" t="n">
-        <v>11.00712135959114</v>
+        <v>11.71549567677044</v>
       </c>
       <c r="J7" t="n">
-        <v>17.29633741838196</v>
+        <v>17.00399519259767</v>
       </c>
       <c r="K7" t="n">
-        <v>9.079970098449483</v>
+        <v>9.407001046966544</v>
       </c>
       <c r="L7" t="n">
-        <v>9.896318595684974</v>
+        <v>9.037161071408233</v>
       </c>
       <c r="M7" t="n">
-        <v>9.711936024036806</v>
+        <v>9.371169339459366</v>
       </c>
       <c r="N7" t="n">
-        <v>15.14738554496863</v>
+        <v>14.32210085986521</v>
       </c>
       <c r="O7" t="n">
-        <v>22.46062442899268</v>
+        <v>22.20951797407969</v>
       </c>
       <c r="P7" t="n">
-        <v>5.743254091869421</v>
+        <v>5.849140446196389</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.220131992373068</v>
+        <v>5.163969918514718</v>
       </c>
       <c r="R7" t="n">
-        <v>5.697358882848993</v>
+        <v>6.109702059455993</v>
       </c>
       <c r="S7" t="n">
-        <v>9.621661047962364</v>
+        <v>9.570622621575302</v>
       </c>
       <c r="T7" t="n">
-        <v>13.51281373734332</v>
+        <v>13.67853196127023</v>
       </c>
       <c r="U7" t="n">
-        <v>11.78305735541157</v>
+        <v>11.65702427259057</v>
       </c>
     </row>
     <row r="8">
@@ -976,49 +976,49 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>13.55187901905076</v>
+        <v>14.4211905334683</v>
       </c>
       <c r="H8" t="n">
-        <v>13.79888884049527</v>
+        <v>12.5698243407807</v>
       </c>
       <c r="I8" t="n">
-        <v>9.647527971113186</v>
+        <v>9.403151048744999</v>
       </c>
       <c r="J8" t="n">
-        <v>11.19267108530758</v>
+        <v>10.91069930313122</v>
       </c>
       <c r="K8" t="n">
-        <v>8.926730105395267</v>
+        <v>9.076502079333283</v>
       </c>
       <c r="L8" t="n">
-        <v>4.356902124154203</v>
+        <v>4.160534921399265</v>
       </c>
       <c r="M8" t="n">
-        <v>2.435943006970712</v>
+        <v>2.577272728160447</v>
       </c>
       <c r="N8" t="n">
-        <v>1.878777324490909</v>
+        <v>2.360105172704201</v>
       </c>
       <c r="O8" t="n">
-        <v>6.102369945118834</v>
+        <v>6.293077782958189</v>
       </c>
       <c r="P8" t="n">
-        <v>7.673618510622231</v>
+        <v>7.522400601202038</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.58252330533378</v>
+        <v>8.747289428663873</v>
       </c>
       <c r="R8" t="n">
-        <v>4.00669268210809</v>
+        <v>3.640326032225579</v>
       </c>
       <c r="S8" t="n">
-        <v>3.41326591779596</v>
+        <v>3.919730599236664</v>
       </c>
       <c r="T8" t="n">
-        <v>6.195262963638836</v>
+        <v>6.849612358163279</v>
       </c>
       <c r="U8" t="n">
-        <v>6.086053691873864</v>
+        <v>6.515975240483495</v>
       </c>
     </row>
     <row r="9">
@@ -1049,49 +1049,49 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>18.3854342610954</v>
+        <v>18.70457876536787</v>
       </c>
       <c r="H9" t="n">
-        <v>10.94181938879817</v>
+        <v>10.62373037549158</v>
       </c>
       <c r="I9" t="n">
-        <v>13.50430562160844</v>
+        <v>13.30262694284786</v>
       </c>
       <c r="J9" t="n">
-        <v>10.13929083862988</v>
+        <v>8.654757712493021</v>
       </c>
       <c r="K9" t="n">
-        <v>9.15261627621296</v>
+        <v>9.233303103485726</v>
       </c>
       <c r="L9" t="n">
-        <v>9.782043657415839</v>
+        <v>10.051045954196</v>
       </c>
       <c r="M9" t="n">
-        <v>2.918409083617405</v>
+        <v>2.521225515569312</v>
       </c>
       <c r="N9" t="n">
-        <v>1.903523673728859</v>
+        <v>2.067298540751568</v>
       </c>
       <c r="O9" t="n">
-        <v>6.142201310031178</v>
+        <v>6.357798689968823</v>
       </c>
       <c r="P9" t="n">
-        <v>7.053607900187542</v>
+        <v>6.961139210173542</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.224567241451838</v>
+        <v>3.149161199605988</v>
       </c>
       <c r="R9" t="n">
-        <v>1.863397854085904</v>
+        <v>1.770345536512117</v>
       </c>
       <c r="S9" t="n">
-        <v>2.170124220643549</v>
+        <v>2.467951678795454</v>
       </c>
       <c r="T9" t="n">
-        <v>5.453720301308595</v>
+        <v>5.351461709882042</v>
       </c>
       <c r="U9" t="n">
-        <v>3.625035760831558</v>
+        <v>3.602784576750691</v>
       </c>
     </row>
     <row r="10">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>10.90389694007468</v>
+        <v>10.93168157603081</v>
       </c>
       <c r="H10" t="n">
-        <v>8.869733060080017</v>
+        <v>9.031707851874847</v>
       </c>
       <c r="I10" t="n">
-        <v>9.096030412208133</v>
+        <v>9.292478375055452</v>
       </c>
       <c r="J10" t="n">
-        <v>8.857101689564059</v>
+        <v>9.311888124344014</v>
       </c>
       <c r="K10" t="n">
-        <v>8.98921423703921</v>
+        <v>8.787833781542041</v>
       </c>
       <c r="L10" t="n">
-        <v>10.15133247295785</v>
+        <v>9.869720013408838</v>
       </c>
       <c r="M10" t="n">
-        <v>7.580153491646454</v>
+        <v>7.847300884843719</v>
       </c>
       <c r="N10" t="n">
-        <v>9.221944905627403</v>
+        <v>9.142754937084934</v>
       </c>
       <c r="O10" t="n">
-        <v>8.627168535103651</v>
+        <v>8.403473468376351</v>
       </c>
       <c r="P10" t="n">
-        <v>9.170840671302425</v>
+        <v>8.922622331669995</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.063713932421779</v>
+        <v>7.762461355236762</v>
       </c>
       <c r="R10" t="n">
-        <v>7.658174745668675</v>
+        <v>7.525093323810453</v>
       </c>
       <c r="S10" t="n">
-        <v>8.154468190728167</v>
+        <v>8.039379654579065</v>
       </c>
       <c r="T10" t="n">
-        <v>10.03672828279834</v>
+        <v>10.00738638388061</v>
       </c>
       <c r="U10" t="n">
-        <v>11.58459574174402</v>
+        <v>11.90908358926579</v>
       </c>
     </row>
     <row r="11">
@@ -1195,49 +1195,49 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>14.83575026001781</v>
+        <v>15.35039646180996</v>
       </c>
       <c r="H11" t="n">
-        <v>13.63365090458367</v>
+        <v>13.70238894399943</v>
       </c>
       <c r="I11" t="n">
-        <v>12.74276316699835</v>
+        <v>13.15712019194877</v>
       </c>
       <c r="J11" t="n">
-        <v>16.53193503520241</v>
+        <v>16.88772555981763</v>
       </c>
       <c r="K11" t="n">
-        <v>12.47373212058965</v>
+        <v>12.31349079761612</v>
       </c>
       <c r="L11" t="n">
-        <v>12.21305368836535</v>
+        <v>12.49546582416075</v>
       </c>
       <c r="M11" t="n">
-        <v>10.0517572971167</v>
+        <v>9.93332960413659</v>
       </c>
       <c r="N11" t="n">
-        <v>8.203101843239786</v>
+        <v>8.329227932533785</v>
       </c>
       <c r="O11" t="n">
-        <v>6.588623039912654</v>
+        <v>6.343166531546764</v>
       </c>
       <c r="P11" t="n">
-        <v>9.136157819471823</v>
+        <v>9.47512877440437</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.13119588982634</v>
+        <v>6.335473479494579</v>
       </c>
       <c r="R11" t="n">
-        <v>4.324218615191708</v>
+        <v>4.625997461529908</v>
       </c>
       <c r="S11" t="n">
-        <v>8.2219652212619</v>
+        <v>7.978764354416631</v>
       </c>
       <c r="T11" t="n">
-        <v>6.102474396045146</v>
+        <v>5.791563139573716</v>
       </c>
       <c r="U11" t="n">
-        <v>5.307317602190671</v>
+        <v>5.044509313065404</v>
       </c>
     </row>
     <row r="12">
@@ -1268,49 +1268,49 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9.490658617516518</v>
+        <v>9.052108308051752</v>
       </c>
       <c r="H12" t="n">
-        <v>7.777671025287174</v>
+        <v>7.956736957588036</v>
       </c>
       <c r="I12" t="n">
-        <v>6.055082821410693</v>
+        <v>6.415999767305849</v>
       </c>
       <c r="J12" t="n">
-        <v>2.324017756550946</v>
+        <v>2.136428999137522</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9388513563173374</v>
+        <v>0.8159632509921541</v>
       </c>
       <c r="L12" t="n">
-        <v>0.796922062702037</v>
+        <v>1.003380179819061</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2593582022371364</v>
+        <v>0.439583609059525</v>
       </c>
       <c r="N12" t="n">
         <v>0.05362842719167522</v>
       </c>
       <c r="O12" t="n">
-        <v>0.337967030127642</v>
+        <v>0.4387370161748747</v>
       </c>
       <c r="P12" t="n">
-        <v>1.637417317113917</v>
+        <v>1.500841556639551</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.364970918882461</v>
+        <v>1.338657219787904</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7169753175589133</v>
+        <v>0.8951357389805372</v>
       </c>
       <c r="S12" t="n">
-        <v>1.137289333692763</v>
+        <v>0.898240922144807</v>
       </c>
       <c r="T12" t="n">
         <v>1.403850131683884</v>
       </c>
       <c r="U12" t="n">
-        <v>2.280666170869673</v>
+        <v>1.4801793883668</v>
       </c>
     </row>
     <row r="13">
@@ -1341,49 +1341,49 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28.33876953393461</v>
+        <v>28.52297675053153</v>
       </c>
       <c r="H13" t="n">
-        <v>16.15918912463718</v>
+        <v>16.56647560378268</v>
       </c>
       <c r="I13" t="n">
-        <v>21.16497115135638</v>
+        <v>21.27613366016267</v>
       </c>
       <c r="J13" t="n">
-        <v>18.84146064482252</v>
+        <v>19.05887478225116</v>
       </c>
       <c r="K13" t="n">
-        <v>24.26112215523807</v>
+        <v>24.86676898290859</v>
       </c>
       <c r="L13" t="n">
-        <v>26.53091956507005</v>
+        <v>26.11558349585265</v>
       </c>
       <c r="M13" t="n">
-        <v>25.24857587382846</v>
+        <v>25.04658486951314</v>
       </c>
       <c r="N13" t="n">
-        <v>22.97802023273534</v>
+        <v>22.68339820014669</v>
       </c>
       <c r="O13" t="n">
-        <v>22.14735185243224</v>
+        <v>21.48239849841379</v>
       </c>
       <c r="P13" t="n">
-        <v>15.93302706045078</v>
+        <v>16.37197154313322</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.01786389185144</v>
+        <v>16.75477308691609</v>
       </c>
       <c r="R13" t="n">
-        <v>25.69667146311239</v>
+        <v>25.93305602346821</v>
       </c>
       <c r="S13" t="n">
-        <v>16.79674950652592</v>
+        <v>16.97074696737264</v>
       </c>
       <c r="T13" t="n">
-        <v>18.7541944187259</v>
+        <v>18.84220519554673</v>
       </c>
       <c r="U13" t="n">
-        <v>13.803596552599</v>
+        <v>13.66305576271056</v>
       </c>
     </row>
     <row r="14">
@@ -1414,49 +1414,49 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>18.64184625459578</v>
+        <v>19.34864966453949</v>
       </c>
       <c r="H14" t="n">
-        <v>9.908123362587</v>
+        <v>10.07512510184769</v>
       </c>
       <c r="I14" t="n">
-        <v>8.919474796132024</v>
+        <v>9.141511016617626</v>
       </c>
       <c r="J14" t="n">
-        <v>9.380670243840896</v>
+        <v>8.583179782987081</v>
       </c>
       <c r="K14" t="n">
-        <v>11.80165121900199</v>
+        <v>11.05298137244769</v>
       </c>
       <c r="L14" t="n">
-        <v>9.287522720890044</v>
+        <v>8.968786143427595</v>
       </c>
       <c r="M14" t="n">
-        <v>9.358383362238607</v>
+        <v>8.917342008020203</v>
       </c>
       <c r="N14" t="n">
-        <v>7.167536601385936</v>
+        <v>6.027423347933727</v>
       </c>
       <c r="O14" t="n">
-        <v>9.865479395162136</v>
+        <v>8.389391523353927</v>
       </c>
       <c r="P14" t="n">
-        <v>12.6094937392397</v>
+        <v>11.45296420917612</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.24799015054406</v>
+        <v>15.29383077138031</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6939789323569</v>
+        <v>11.63558907363852</v>
       </c>
       <c r="S14" t="n">
-        <v>11.56381038668271</v>
+        <v>11.53335581998933</v>
       </c>
       <c r="T14" t="n">
-        <v>7.371591230493439</v>
+        <v>7.637086086939081</v>
       </c>
       <c r="U14" t="n">
-        <v>19.21709365886031</v>
+        <v>19.98637816314769</v>
       </c>
     </row>
     <row r="15">
@@ -1487,49 +1487,49 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>19.72388123458021</v>
+        <v>19.74789144837095</v>
       </c>
       <c r="H15" t="n">
-        <v>21.19675898511356</v>
+        <v>20.66181430288187</v>
       </c>
       <c r="I15" t="n">
-        <v>15.58741134120733</v>
+        <v>14.97733236713283</v>
       </c>
       <c r="J15" t="n">
-        <v>11.90218140259805</v>
+        <v>12.35559787936951</v>
       </c>
       <c r="K15" t="n">
-        <v>12.83053384513996</v>
+        <v>11.8147557693036</v>
       </c>
       <c r="L15" t="n">
-        <v>8.95243295228563</v>
+        <v>8.698623083221214</v>
       </c>
       <c r="M15" t="n">
-        <v>9.400205885081151</v>
+        <v>9.276080694498646</v>
       </c>
       <c r="N15" t="n">
-        <v>11.99063206709988</v>
+        <v>11.88060000572525</v>
       </c>
       <c r="O15" t="n">
-        <v>11.25667596473024</v>
+        <v>11.07529634770266</v>
       </c>
       <c r="P15" t="n">
-        <v>10.41013087895763</v>
+        <v>10.22801857366892</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.44052871397821</v>
+        <v>12.65263622165728</v>
       </c>
       <c r="R15" t="n">
-        <v>15.4957291942214</v>
+        <v>16.71886066336152</v>
       </c>
       <c r="S15" t="n">
-        <v>14.71568875765364</v>
+        <v>16.00539521672827</v>
       </c>
       <c r="T15" t="n">
-        <v>18.03649930758167</v>
+        <v>18.7579770814624</v>
       </c>
       <c r="U15" t="n">
-        <v>15.57101140205261</v>
+        <v>15.73992172448473</v>
       </c>
     </row>
     <row r="16">
@@ -1560,49 +1560,49 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>19.16695760976137</v>
+        <v>18.34966740704425</v>
       </c>
       <c r="H16" t="n">
-        <v>12.96431061448685</v>
+        <v>12.35626027260414</v>
       </c>
       <c r="I16" t="n">
-        <v>9.920033648772247</v>
+        <v>10.07691138518003</v>
       </c>
       <c r="J16" t="n">
-        <v>14.82302255764206</v>
+        <v>14.00796931325069</v>
       </c>
       <c r="K16" t="n">
-        <v>16.53972276713943</v>
+        <v>16.03990305173708</v>
       </c>
       <c r="L16" t="n">
-        <v>10.28788692882768</v>
+        <v>10.49029703686618</v>
       </c>
       <c r="M16" t="n">
-        <v>5.746641939659209</v>
+        <v>5.796762452659581</v>
       </c>
       <c r="N16" t="n">
-        <v>10.40532247748449</v>
+        <v>9.533656588705076</v>
       </c>
       <c r="O16" t="n">
-        <v>7.869148759308914</v>
+        <v>7.195837791522974</v>
       </c>
       <c r="P16" t="n">
-        <v>8.443066226534071</v>
+        <v>7.677716004665454</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.036146951647643</v>
+        <v>8.335992743851568</v>
       </c>
       <c r="R16" t="n">
-        <v>8.528367198304434</v>
+        <v>8.105293737367125</v>
       </c>
       <c r="S16" t="n">
-        <v>8.880005004341953</v>
+        <v>8.654934937497313</v>
       </c>
       <c r="T16" t="n">
-        <v>10.03943889742919</v>
+        <v>9.992007485887596</v>
       </c>
       <c r="U16" t="n">
-        <v>8.294686028505515</v>
+        <v>8.020336251303606</v>
       </c>
     </row>
     <row r="17">
@@ -1633,49 +1633,49 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>13.23736725937286</v>
+        <v>13.86830513739722</v>
       </c>
       <c r="H17" t="n">
-        <v>6.433542577000773</v>
+        <v>6.004552888259822</v>
       </c>
       <c r="I17" t="n">
-        <v>1.445028341334194</v>
+        <v>1.414972584819333</v>
       </c>
       <c r="J17" t="n">
-        <v>1.030770942108397</v>
+        <v>1.45110783300611</v>
       </c>
       <c r="K17" t="n">
-        <v>6.002388164645549</v>
+        <v>5.894645248017326</v>
       </c>
       <c r="L17" t="n">
-        <v>4.229088007432011</v>
+        <v>3.93858986133774</v>
       </c>
       <c r="M17" t="n">
-        <v>3.581021371889148</v>
+        <v>3.691496024256829</v>
       </c>
       <c r="N17" t="n">
-        <v>4.879238838741156</v>
+        <v>4.121737009026591</v>
       </c>
       <c r="O17" t="n">
-        <v>6.622229708593016</v>
+        <v>5.959886421060231</v>
       </c>
       <c r="P17" t="n">
-        <v>3.699486778417377</v>
+        <v>3.744585391266773</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.617698611048781</v>
+        <v>3.651186643966859</v>
       </c>
       <c r="R17" t="n">
-        <v>2.614023374160499</v>
+        <v>3.135257054047837</v>
       </c>
       <c r="S17" t="n">
-        <v>2.954668888558715</v>
+        <v>3.039417303597242</v>
       </c>
       <c r="T17" t="n">
-        <v>2.666174544046183</v>
+        <v>2.630607531921849</v>
       </c>
       <c r="U17" t="n">
-        <v>2.055065417209393</v>
+        <v>2.463758180447083</v>
       </c>
     </row>
     <row r="18">
@@ -1706,49 +1706,49 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>16.50910545515055</v>
+        <v>16.33100258829324</v>
       </c>
       <c r="H18" t="n">
-        <v>16.82300662369954</v>
+        <v>16.97274825418951</v>
       </c>
       <c r="I18" t="n">
-        <v>13.86630920700406</v>
+        <v>14.25126980073478</v>
       </c>
       <c r="J18" t="n">
-        <v>11.52719892573325</v>
+        <v>10.82962479238633</v>
       </c>
       <c r="K18" t="n">
-        <v>11.43639979702001</v>
+        <v>11.22609462040279</v>
       </c>
       <c r="L18" t="n">
-        <v>6.495558838028624</v>
+        <v>6.265490852341468</v>
       </c>
       <c r="M18" t="n">
-        <v>7.426691485075593</v>
+        <v>7.86005351268596</v>
       </c>
       <c r="N18" t="n">
-        <v>7.580170324943369</v>
+        <v>7.833921341131343</v>
       </c>
       <c r="O18" t="n">
-        <v>8.076785700715117</v>
+        <v>8.367087934218425</v>
       </c>
       <c r="P18" t="n">
-        <v>9.623388079114974</v>
+        <v>10.06982666320055</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.7146488497677</v>
+        <v>19.02446557458605</v>
       </c>
       <c r="R18" t="n">
-        <v>11.07661839694408</v>
+        <v>10.93820584079304</v>
       </c>
       <c r="S18" t="n">
-        <v>8.537500501026127</v>
+        <v>8.820212694686976</v>
       </c>
       <c r="T18" t="n">
-        <v>8.053234703371174</v>
+        <v>8.140815043003105</v>
       </c>
       <c r="U18" t="n">
-        <v>2.536899890346705</v>
+        <v>2.57149083512918</v>
       </c>
     </row>
     <row r="19">
@@ -1779,49 +1779,49 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>12.71748939356712</v>
+        <v>12.00059489710375</v>
       </c>
       <c r="H19" t="n">
-        <v>6.638794294627348</v>
+        <v>6.773457794986173</v>
       </c>
       <c r="I19" t="n">
-        <v>3.505171440191562</v>
+        <v>3.735416887491292</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3579350090113819</v>
+        <v>0.4862876670496825</v>
       </c>
       <c r="K19" t="n">
-        <v>1.282761046247091</v>
+        <v>1.601983733106233</v>
       </c>
       <c r="L19" t="n">
-        <v>2.451411997840284</v>
+        <v>2.537779201749887</v>
       </c>
       <c r="M19" t="n">
-        <v>2.630505046807317</v>
+        <v>3.229259841615038</v>
       </c>
       <c r="N19" t="n">
-        <v>4.441314472100609</v>
+        <v>4.585651741640649</v>
       </c>
       <c r="O19" t="n">
-        <v>6.341224615992408</v>
+        <v>5.758074143417227</v>
       </c>
       <c r="P19" t="n">
-        <v>3.433375582606363</v>
+        <v>3.320912643026488</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.456185245228939</v>
+        <v>4.473979122031413</v>
       </c>
       <c r="R19" t="n">
-        <v>3.726670412605758</v>
+        <v>3.728691602763371</v>
       </c>
       <c r="S19" t="n">
-        <v>3.085730025348328</v>
+        <v>3.385655629404662</v>
       </c>
       <c r="T19" t="n">
-        <v>2.191552708260684</v>
+        <v>2.309295846252566</v>
       </c>
       <c r="U19" t="n">
-        <v>1.008554773838654</v>
+        <v>0.9077756442802117</v>
       </c>
     </row>
     <row r="20">
@@ -1852,49 +1852,49 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10.55200725613436</v>
+        <v>9.93635280057285</v>
       </c>
       <c r="H20" t="n">
-        <v>11.15081138940795</v>
+        <v>11.2186700106926</v>
       </c>
       <c r="I20" t="n">
-        <v>14.46933042878417</v>
+        <v>15.16466534104132</v>
       </c>
       <c r="J20" t="n">
-        <v>11.4907412507363</v>
+        <v>10.60016868882243</v>
       </c>
       <c r="K20" t="n">
-        <v>12.21613608989223</v>
+        <v>11.8048040383504</v>
       </c>
       <c r="L20" t="n">
-        <v>13.69599269615107</v>
+        <v>14.02953363138287</v>
       </c>
       <c r="M20" t="n">
-        <v>12.96486761356648</v>
+        <v>12.44596343965889</v>
       </c>
       <c r="N20" t="n">
-        <v>12.04388443145085</v>
+        <v>11.0456637632436</v>
       </c>
       <c r="O20" t="n">
-        <v>8.01321102395505</v>
+        <v>7.188025495665133</v>
       </c>
       <c r="P20" t="n">
-        <v>9.888249574970958</v>
+        <v>11.06529866890731</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.42426579493772</v>
+        <v>9.90710550777022</v>
       </c>
       <c r="R20" t="n">
-        <v>8.732360526020727</v>
+        <v>8.524931524402941</v>
       </c>
       <c r="S20" t="n">
-        <v>11.78984805497914</v>
+        <v>10.76051520782945</v>
       </c>
       <c r="T20" t="n">
-        <v>12.18328984086703</v>
+        <v>11.93638741705142</v>
       </c>
       <c r="U20" t="n">
-        <v>8.854283183833827</v>
+        <v>8.972115558470293</v>
       </c>
     </row>
     <row r="21">
@@ -1925,49 +1925,49 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.318058345453872</v>
+        <v>7.420625549641318</v>
       </c>
       <c r="H21" t="n">
-        <v>6.64893017785905</v>
+        <v>6.461835865307189</v>
       </c>
       <c r="I21" t="n">
-        <v>7.065769094570118</v>
+        <v>7.480139235607027</v>
       </c>
       <c r="J21" t="n">
-        <v>5.745752273824949</v>
+        <v>6.225971393756561</v>
       </c>
       <c r="K21" t="n">
-        <v>5.041041370753641</v>
+        <v>4.543924721926019</v>
       </c>
       <c r="L21" t="n">
-        <v>6.499856340510105</v>
+        <v>6.862665122512017</v>
       </c>
       <c r="M21" t="n">
-        <v>15.64638846438048</v>
+        <v>14.8534657938388</v>
       </c>
       <c r="N21" t="n">
-        <v>15.8626579618603</v>
+        <v>15.22186437645375</v>
       </c>
       <c r="O21" t="n">
-        <v>16.28382485677971</v>
+        <v>16.86898643628616</v>
       </c>
       <c r="P21" t="n">
-        <v>14.55015056355929</v>
+        <v>13.18653383544345</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.108084819898663</v>
+        <v>8.010444554604248</v>
       </c>
       <c r="R21" t="n">
-        <v>9.352784564752502</v>
+        <v>8.744004838993909</v>
       </c>
       <c r="S21" t="n">
-        <v>14.35000208625325</v>
+        <v>13.1944426380248</v>
       </c>
       <c r="T21" t="n">
-        <v>11.19944417870586</v>
+        <v>10.03032508812123</v>
       </c>
       <c r="U21" t="n">
-        <v>9.378627900320188</v>
+        <v>9.392495035387862</v>
       </c>
     </row>
     <row r="22">
@@ -1998,49 +1998,49 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10.98309038531818</v>
+        <v>10.05927668078497</v>
       </c>
       <c r="H22" t="n">
-        <v>5.22303436497304</v>
+        <v>5.249925471381114</v>
       </c>
       <c r="I22" t="n">
-        <v>7.977316717155966</v>
+        <v>7.483085201849724</v>
       </c>
       <c r="J22" t="n">
-        <v>8.290053381733657</v>
+        <v>8.524754216534792</v>
       </c>
       <c r="K22" t="n">
-        <v>8.770206106649217</v>
+        <v>8.745972563708211</v>
       </c>
       <c r="L22" t="n">
-        <v>9.348004231385138</v>
+        <v>9.254523575120425</v>
       </c>
       <c r="M22" t="n">
-        <v>10.12908952170002</v>
+        <v>10.43584358910895</v>
       </c>
       <c r="N22" t="n">
-        <v>12.14170818234447</v>
+        <v>11.58642973183576</v>
       </c>
       <c r="O22" t="n">
-        <v>13.48555317299563</v>
+        <v>13.18796417844252</v>
       </c>
       <c r="P22" t="n">
-        <v>12.12509254248119</v>
+        <v>11.59491705278637</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.94661313861051</v>
+        <v>15.80706014139886</v>
       </c>
       <c r="R22" t="n">
-        <v>14.77506927150924</v>
+        <v>14.39477160861889</v>
       </c>
       <c r="S22" t="n">
-        <v>9.69987207106073</v>
+        <v>8.87651294924687</v>
       </c>
       <c r="T22" t="n">
-        <v>9.260340550665664</v>
+        <v>9.207431317668823</v>
       </c>
       <c r="U22" t="n">
-        <v>7.931418270828209</v>
+        <v>8.007729725423992</v>
       </c>
     </row>
     <row r="23">
@@ -2071,49 +2071,49 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>15.52699639998085</v>
+        <v>15.88176788579539</v>
       </c>
       <c r="H23" t="n">
-        <v>12.35927812119926</v>
+        <v>11.94713875793797</v>
       </c>
       <c r="I23" t="n">
-        <v>11.98499378402228</v>
+        <v>12.13606770588633</v>
       </c>
       <c r="J23" t="n">
-        <v>10.78241097093574</v>
+        <v>11.01753007392043</v>
       </c>
       <c r="K23" t="n">
-        <v>13.89065907322205</v>
+        <v>12.49985058671489</v>
       </c>
       <c r="L23" t="n">
-        <v>15.67896555908389</v>
+        <v>15.31713909713142</v>
       </c>
       <c r="M23" t="n">
-        <v>14.22980221961473</v>
+        <v>13.89073653868584</v>
       </c>
       <c r="N23" t="n">
-        <v>15.44228868301878</v>
+        <v>15.06137789935864</v>
       </c>
       <c r="O23" t="n">
-        <v>14.70443660920398</v>
+        <v>13.96366183918871</v>
       </c>
       <c r="P23" t="n">
-        <v>12.52180419209657</v>
+        <v>12.63404521711388</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.13091755972187</v>
+        <v>13.16671251595767</v>
       </c>
       <c r="R23" t="n">
-        <v>16.12471570409478</v>
+        <v>16.34621532503357</v>
       </c>
       <c r="S23" t="n">
-        <v>14.99087349308599</v>
+        <v>15.75193545805432</v>
       </c>
       <c r="T23" t="n">
-        <v>14.00286468473787</v>
+        <v>14.46785845924327</v>
       </c>
       <c r="U23" t="n">
-        <v>11.95791643011614</v>
+        <v>12.07157007200981</v>
       </c>
     </row>
     <row r="24">
@@ -2144,49 +2144,49 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.83527555937773</v>
+        <v>11.48355193005655</v>
       </c>
       <c r="H24" t="n">
-        <v>29.42683673175323</v>
+        <v>28.55664049472708</v>
       </c>
       <c r="I24" t="n">
-        <v>17.32304043857116</v>
+        <v>18.53583196270932</v>
       </c>
       <c r="J24" t="n">
-        <v>16.80558332135805</v>
+        <v>16.50962723102143</v>
       </c>
       <c r="K24" t="n">
-        <v>17.9110733995768</v>
+        <v>17.80042473193146</v>
       </c>
       <c r="L24" t="n">
-        <v>15.76745031377997</v>
+        <v>15.55210496544268</v>
       </c>
       <c r="M24" t="n">
-        <v>12.32706367267849</v>
+        <v>12.73263192820571</v>
       </c>
       <c r="N24" t="n">
-        <v>8.661112528481819</v>
+        <v>8.659592964900481</v>
       </c>
       <c r="O24" t="n">
-        <v>8.360537389613802</v>
+        <v>8.11530509177609</v>
       </c>
       <c r="P24" t="n">
-        <v>8.925872930420041</v>
+        <v>7.769539237878396</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.39960750247269</v>
+        <v>10.88754537865579</v>
       </c>
       <c r="R24" t="n">
-        <v>10.08662838841667</v>
+        <v>9.865452763097007</v>
       </c>
       <c r="S24" t="n">
-        <v>10.51827050970089</v>
+        <v>10.50994427050006</v>
       </c>
       <c r="T24" t="n">
-        <v>10.32649076982412</v>
+        <v>10.53727055885302</v>
       </c>
       <c r="U24" t="n">
-        <v>10.97495245746596</v>
+        <v>10.98366919403601</v>
       </c>
     </row>
     <row r="25">
@@ -2217,49 +2217,49 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.29297883713887</v>
+        <v>12.06563034892621</v>
       </c>
       <c r="H25" t="n">
-        <v>16.66304328165128</v>
+        <v>16.21196667392651</v>
       </c>
       <c r="I25" t="n">
-        <v>15.38972819467056</v>
+        <v>15.19192347196536</v>
       </c>
       <c r="J25" t="n">
-        <v>16.94562991181999</v>
+        <v>15.94894078720569</v>
       </c>
       <c r="K25" t="n">
-        <v>14.1672896793324</v>
+        <v>14.44857565347604</v>
       </c>
       <c r="L25" t="n">
-        <v>14.6513614440157</v>
+        <v>14.52762796047734</v>
       </c>
       <c r="M25" t="n">
-        <v>21.52226735933406</v>
+        <v>21.16757082365893</v>
       </c>
       <c r="N25" t="n">
-        <v>23.12073696053245</v>
+        <v>22.9730796391815</v>
       </c>
       <c r="O25" t="n">
-        <v>21.0884184798524</v>
+        <v>20.15846555179932</v>
       </c>
       <c r="P25" t="n">
-        <v>14.83714636317973</v>
+        <v>14.60661223172365</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.64097960216187</v>
+        <v>18.00996170949997</v>
       </c>
       <c r="R25" t="n">
-        <v>13.97343529338734</v>
+        <v>14.22794745255055</v>
       </c>
       <c r="S25" t="n">
-        <v>19.36334970960703</v>
+        <v>18.04183056332375</v>
       </c>
       <c r="T25" t="n">
-        <v>31.91072571678673</v>
+        <v>33.00048203923943</v>
       </c>
       <c r="U25" t="n">
-        <v>21.33352238357988</v>
+        <v>21.34051969790016</v>
       </c>
     </row>
     <row r="26">
@@ -2290,49 +2290,49 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>10.03772042441305</v>
+        <v>8.735266269320638</v>
       </c>
       <c r="H26" t="n">
-        <v>8.077268533809526</v>
+        <v>7.598738324578245</v>
       </c>
       <c r="I26" t="n">
-        <v>6.878833647165622</v>
+        <v>6.148174830820246</v>
       </c>
       <c r="J26" t="n">
-        <v>9.48400933886426</v>
+        <v>9.150075387788903</v>
       </c>
       <c r="K26" t="n">
-        <v>9.005173069515344</v>
+        <v>8.99332915017688</v>
       </c>
       <c r="L26" t="n">
-        <v>11.18268356857322</v>
+        <v>11.02757028705602</v>
       </c>
       <c r="M26" t="n">
-        <v>11.91547327455041</v>
+        <v>11.43750930489386</v>
       </c>
       <c r="N26" t="n">
-        <v>8.651406474907903</v>
+        <v>8.120593329917783</v>
       </c>
       <c r="O26" t="n">
-        <v>7.16987399957031</v>
+        <v>7.252080899774382</v>
       </c>
       <c r="P26" t="n">
-        <v>11.91504055252171</v>
+        <v>11.3854554385983</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.614994385294056</v>
+        <v>9.308928346361286</v>
       </c>
       <c r="R26" t="n">
-        <v>10.30882790314191</v>
+        <v>9.099939024460262</v>
       </c>
       <c r="S26" t="n">
-        <v>5.536901571307717</v>
+        <v>5.669074454288755</v>
       </c>
       <c r="T26" t="n">
-        <v>5.281660276511205</v>
+        <v>4.889033991546703</v>
       </c>
       <c r="U26" t="n">
-        <v>9.434869563064463</v>
+        <v>9.042417106591584</v>
       </c>
     </row>
     <row r="27">
@@ -2363,49 +2363,49 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9.266812078204509</v>
+        <v>9.045420466048961</v>
       </c>
       <c r="H27" t="n">
-        <v>9.458037377256499</v>
+        <v>9.539179013399202</v>
       </c>
       <c r="I27" t="n">
-        <v>10.56936183467309</v>
+        <v>10.13360631705043</v>
       </c>
       <c r="J27" t="n">
-        <v>8.889674854225868</v>
+        <v>7.974758509265881</v>
       </c>
       <c r="K27" t="n">
-        <v>4.702357718278792</v>
+        <v>4.251040216022013</v>
       </c>
       <c r="L27" t="n">
-        <v>4.222606074739622</v>
+        <v>4.049425726744178</v>
       </c>
       <c r="M27" t="n">
-        <v>3.810504343942243</v>
+        <v>3.544687927048354</v>
       </c>
       <c r="N27" t="n">
-        <v>4.614204335976751</v>
+        <v>4.337964736754596</v>
       </c>
       <c r="O27" t="n">
-        <v>4.037026727871657</v>
+        <v>3.86822100923534</v>
       </c>
       <c r="P27" t="n">
-        <v>6.493813148259155</v>
+        <v>6.299858841833228</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.442957538611509</v>
+        <v>4.291743297258138</v>
       </c>
       <c r="R27" t="n">
-        <v>5.498722535144662</v>
+        <v>5.27797268862364</v>
       </c>
       <c r="S27" t="n">
-        <v>3.308650875834596</v>
+        <v>2.735139993024555</v>
       </c>
       <c r="T27" t="n">
-        <v>5.190771461808831</v>
+        <v>5.040145473446303</v>
       </c>
       <c r="U27" t="n">
-        <v>8.457056019702668</v>
+        <v>8.241324336009669</v>
       </c>
     </row>
     <row r="28">
@@ -2436,49 +2436,49 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>19.92862503481848</v>
+        <v>17.89304233710715</v>
       </c>
       <c r="H28" t="n">
-        <v>7.239349395330516</v>
+        <v>7.391268205961023</v>
       </c>
       <c r="I28" t="n">
-        <v>7.87123758263597</v>
+        <v>7.566456879226823</v>
       </c>
       <c r="J28" t="n">
-        <v>2.667192992607395</v>
+        <v>2.613423346471882</v>
       </c>
       <c r="K28" t="n">
-        <v>2.042058627664427</v>
+        <v>2.016572504499418</v>
       </c>
       <c r="L28" t="n">
-        <v>2.820854798967951</v>
+        <v>2.798029520520898</v>
       </c>
       <c r="M28" t="n">
-        <v>6.902716019344303</v>
+        <v>6.347190534002538</v>
       </c>
       <c r="N28" t="n">
-        <v>4.406547490554331</v>
+        <v>4.122414519940732</v>
       </c>
       <c r="O28" t="n">
-        <v>3.759088452510834</v>
+        <v>3.442010869626282</v>
       </c>
       <c r="P28" t="n">
-        <v>4.772644837440112</v>
+        <v>4.622540572888134</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.027619056207628</v>
+        <v>3.837100181659418</v>
       </c>
       <c r="R28" t="n">
-        <v>3.860141399707563</v>
+        <v>3.519934700252559</v>
       </c>
       <c r="S28" t="n">
-        <v>5.262779397814791</v>
+        <v>4.943861575978194</v>
       </c>
       <c r="T28" t="n">
-        <v>3.993235408961171</v>
+        <v>4.405504605630062</v>
       </c>
       <c r="U28" t="n">
-        <v>2.018429830701797</v>
+        <v>2.166153626807314</v>
       </c>
     </row>
     <row r="29">
@@ -2509,49 +2509,49 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.066672577210392</v>
+        <v>9.366943889219167</v>
       </c>
       <c r="H29" t="n">
-        <v>2.972219067300196</v>
+        <v>3.170549093001048</v>
       </c>
       <c r="I29" t="n">
-        <v>2.382473304561086</v>
+        <v>2.449655644360381</v>
       </c>
       <c r="J29" t="n">
-        <v>2.862817057515462</v>
+        <v>2.668768327875339</v>
       </c>
       <c r="K29" t="n">
-        <v>6.712476339604584</v>
+        <v>6.761888362523427</v>
       </c>
       <c r="L29" t="n">
-        <v>6.166630882887048</v>
+        <v>6.521339386787367</v>
       </c>
       <c r="M29" t="n">
-        <v>4.307970976839213</v>
+        <v>4.611283601043206</v>
       </c>
       <c r="N29" t="n">
-        <v>6.995673463650067</v>
+        <v>6.682116722765858</v>
       </c>
       <c r="O29" t="n">
-        <v>5.382905010600341</v>
+        <v>5.688371033011396</v>
       </c>
       <c r="P29" t="n">
-        <v>6.321242080874506</v>
+        <v>7.087422045758276</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.428434609175302</v>
+        <v>7.660175746743334</v>
       </c>
       <c r="R29" t="n">
-        <v>7.820291380755763</v>
+        <v>8.104909621072556</v>
       </c>
       <c r="S29" t="n">
-        <v>5.279653375953946</v>
+        <v>5.569693268750485</v>
       </c>
       <c r="T29" t="n">
-        <v>6.143245314850748</v>
+        <v>6.079804809542519</v>
       </c>
       <c r="U29" t="n">
-        <v>3.592443578795389</v>
+        <v>4.139160983870178</v>
       </c>
     </row>
     <row r="30">
@@ -2582,49 +2582,49 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9.231170154909149</v>
+        <v>9.18034535817854</v>
       </c>
       <c r="H30" t="n">
-        <v>10.54383086796632</v>
+        <v>11.02223786544204</v>
       </c>
       <c r="I30" t="n">
-        <v>16.87127821390699</v>
+        <v>17.21677996960159</v>
       </c>
       <c r="J30" t="n">
-        <v>8.364612108981694</v>
+        <v>8.369669028423358</v>
       </c>
       <c r="K30" t="n">
-        <v>7.252435858977576</v>
+        <v>6.719155591068131</v>
       </c>
       <c r="L30" t="n">
-        <v>11.02334716228113</v>
+        <v>11.50991063397505</v>
       </c>
       <c r="M30" t="n">
-        <v>14.43362065254092</v>
+        <v>13.94052413169111</v>
       </c>
       <c r="N30" t="n">
-        <v>10.56003391646892</v>
+        <v>10.75493584723457</v>
       </c>
       <c r="O30" t="n">
-        <v>11.53997922554214</v>
+        <v>10.96490973556088</v>
       </c>
       <c r="P30" t="n">
-        <v>10.84888936089483</v>
+        <v>10.41012025760586</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.655468032679787</v>
+        <v>7.088350150538218</v>
       </c>
       <c r="R30" t="n">
-        <v>7.497990197349654</v>
+        <v>7.873758460620834</v>
       </c>
       <c r="S30" t="n">
-        <v>7.591655166942729</v>
+        <v>7.637206621306813</v>
       </c>
       <c r="T30" t="n">
-        <v>6.548876906667976</v>
+        <v>6.316134450869421</v>
       </c>
       <c r="U30" t="n">
-        <v>7.847581388241939</v>
+        <v>6.883100045839488</v>
       </c>
     </row>
     <row r="31">
@@ -2655,49 +2655,49 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.0595939503045</v>
+        <v>5.409355658515635</v>
       </c>
       <c r="H31" t="n">
-        <v>7.454552711446983</v>
+        <v>7.089227970356441</v>
       </c>
       <c r="I31" t="n">
-        <v>5.100041393920346</v>
+        <v>5.2956474134354</v>
       </c>
       <c r="J31" t="n">
-        <v>7.3156970029137</v>
+        <v>7.274704601221045</v>
       </c>
       <c r="K31" t="n">
-        <v>7.432871513583003</v>
+        <v>6.857899408727862</v>
       </c>
       <c r="L31" t="n">
-        <v>4.015513038435616</v>
+        <v>4.190809067845869</v>
       </c>
       <c r="M31" t="n">
-        <v>6.593403352172755</v>
+        <v>6.3365614858455</v>
       </c>
       <c r="N31" t="n">
-        <v>4.926777709428666</v>
+        <v>4.878042149122658</v>
       </c>
       <c r="O31" t="n">
-        <v>4.547015610159214</v>
+        <v>4.524813123480706</v>
       </c>
       <c r="P31" t="n">
-        <v>6.746613710947294</v>
+        <v>5.838441020070796</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.406073117124341</v>
+        <v>6.827541516853445</v>
       </c>
       <c r="R31" t="n">
-        <v>7.289446347788951</v>
+        <v>6.712245404316697</v>
       </c>
       <c r="S31" t="n">
-        <v>9.23913843778484</v>
+        <v>9.313204845963146</v>
       </c>
       <c r="T31" t="n">
-        <v>8.619598205623447</v>
+        <v>8.085363058413366</v>
       </c>
       <c r="U31" t="n">
-        <v>7.495652425248209</v>
+        <v>7.923424877280369</v>
       </c>
     </row>
     <row r="32">
@@ -2728,49 +2728,49 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.986296534183909</v>
+        <v>7.515976659867568</v>
       </c>
       <c r="H32" t="n">
-        <v>3.890688056833001</v>
+        <v>3.623465862575533</v>
       </c>
       <c r="I32" t="n">
-        <v>5.641438272493778</v>
+        <v>5.706312362439411</v>
       </c>
       <c r="J32" t="n">
-        <v>4.893141398093031</v>
+        <v>4.80676685268042</v>
       </c>
       <c r="K32" t="n">
-        <v>7.224432171294354</v>
+        <v>7.42389704243153</v>
       </c>
       <c r="L32" t="n">
-        <v>7.330095152174884</v>
+        <v>7.431045074149929</v>
       </c>
       <c r="M32" t="n">
-        <v>6.49778338872702</v>
+        <v>5.894324859373576</v>
       </c>
       <c r="N32" t="n">
-        <v>10.03694665854786</v>
+        <v>9.701206680004701</v>
       </c>
       <c r="O32" t="n">
-        <v>9.743188865437517</v>
+        <v>9.492147512851725</v>
       </c>
       <c r="P32" t="n">
-        <v>7.254456211514761</v>
+        <v>7.123173978638904</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.846892096628842</v>
+        <v>6.515484236693037</v>
       </c>
       <c r="R32" t="n">
-        <v>4.783232375475873</v>
+        <v>4.695528342268976</v>
       </c>
       <c r="S32" t="n">
-        <v>5.784317757578994</v>
+        <v>5.636741888614571</v>
       </c>
       <c r="T32" t="n">
-        <v>5.553020349195704</v>
+        <v>5.124362107055731</v>
       </c>
       <c r="U32" t="n">
-        <v>5.508486348637772</v>
+        <v>5.48987834370665</v>
       </c>
     </row>
   </sheetData>

--- a/province_gis.xlsx
+++ b/province_gis.xlsx
@@ -538,49 +538,49 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9.135054278951019</v>
+        <v>8.741854827374732</v>
       </c>
       <c r="H2" t="n">
-        <v>13.5126087215433</v>
+        <v>13.66476582889729</v>
       </c>
       <c r="I2" t="n">
-        <v>8.783367978990929</v>
+        <v>8.047598693608021</v>
       </c>
       <c r="J2" t="n">
-        <v>9.054111580654224</v>
+        <v>8.994998459668805</v>
       </c>
       <c r="K2" t="n">
-        <v>8.41410884703498</v>
+        <v>8.30548428656113</v>
       </c>
       <c r="L2" t="n">
-        <v>7.92212552526792</v>
+        <v>7.88393079891707</v>
       </c>
       <c r="M2" t="n">
-        <v>6.811002502469678</v>
+        <v>6.769259907480745</v>
       </c>
       <c r="N2" t="n">
-        <v>6.216379954757985</v>
+        <v>5.785457086042887</v>
       </c>
       <c r="O2" t="n">
-        <v>4.22514403900133</v>
+        <v>4.22998772126546</v>
       </c>
       <c r="P2" t="n">
-        <v>4.302677576835827</v>
+        <v>4.2602771896794</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.550216385545962</v>
+        <v>2.08223168475623</v>
       </c>
       <c r="R2" t="n">
-        <v>2.234242763355937</v>
+        <v>2.073619942047102</v>
       </c>
       <c r="S2" t="n">
-        <v>1.714215355421597</v>
+        <v>1.639022781709253</v>
       </c>
       <c r="T2" t="n">
-        <v>1.191783722066933</v>
+        <v>1.109832004824316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3652051155021461</v>
+        <v>0.1764646566501966</v>
       </c>
     </row>
     <row r="3">
@@ -611,49 +611,49 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.44334406775205</v>
+        <v>4.075620335371686</v>
       </c>
       <c r="H3" t="n">
-        <v>6.776688882907996</v>
+        <v>7.376244220065424</v>
       </c>
       <c r="I3" t="n">
-        <v>6.599093890701548</v>
+        <v>7.209466552294621</v>
       </c>
       <c r="J3" t="n">
-        <v>6.342667930971431</v>
+        <v>6.539345750693366</v>
       </c>
       <c r="K3" t="n">
-        <v>6.064810226703608</v>
+        <v>5.98430740629475</v>
       </c>
       <c r="L3" t="n">
-        <v>7.612661576767018</v>
+        <v>7.47151694240509</v>
       </c>
       <c r="M3" t="n">
-        <v>8.728902193441504</v>
+        <v>8.395319836054256</v>
       </c>
       <c r="N3" t="n">
-        <v>6.499330357727881</v>
+        <v>6.289395539736913</v>
       </c>
       <c r="O3" t="n">
-        <v>7.700452574741652</v>
+        <v>7.573238209541334</v>
       </c>
       <c r="P3" t="n">
-        <v>10.56573909100748</v>
+        <v>10.10649610499129</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.498110335521874</v>
+        <v>7.885193062071368</v>
       </c>
       <c r="R3" t="n">
-        <v>10.76186203620626</v>
+        <v>9.753259091148994</v>
       </c>
       <c r="S3" t="n">
-        <v>8.833356575662188</v>
+        <v>8.277955086874842</v>
       </c>
       <c r="T3" t="n">
-        <v>7.312953369943388</v>
+        <v>6.759639869178244</v>
       </c>
       <c r="U3" t="n">
-        <v>6.040434915093292</v>
+        <v>5.359905703831608</v>
       </c>
     </row>
     <row r="4">
@@ -684,49 +684,49 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>13.69955530477904</v>
+        <v>14.20237395839058</v>
       </c>
       <c r="H4" t="n">
-        <v>18.33258673686503</v>
+        <v>19.28859690652793</v>
       </c>
       <c r="I4" t="n">
-        <v>12.09687052109013</v>
+        <v>12.9010866794706</v>
       </c>
       <c r="J4" t="n">
-        <v>13.23104379578634</v>
+        <v>13.25884450499189</v>
       </c>
       <c r="K4" t="n">
-        <v>17.87175403149137</v>
+        <v>17.61407583471327</v>
       </c>
       <c r="L4" t="n">
-        <v>13.38518300381908</v>
+        <v>14.10048149313454</v>
       </c>
       <c r="M4" t="n">
-        <v>12.38188220878193</v>
+        <v>12.18066735314034</v>
       </c>
       <c r="N4" t="n">
-        <v>14.18163933418379</v>
+        <v>14.18256151729862</v>
       </c>
       <c r="O4" t="n">
-        <v>11.24417211803168</v>
+        <v>11.2339648811007</v>
       </c>
       <c r="P4" t="n">
-        <v>12.52460693295855</v>
+        <v>12.03344684155729</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.65555199723283</v>
+        <v>12.84635490423381</v>
       </c>
       <c r="R4" t="n">
-        <v>8.869500449174996</v>
+        <v>8.360340690706057</v>
       </c>
       <c r="S4" t="n">
-        <v>6.417250225433993</v>
+        <v>5.917805586683229</v>
       </c>
       <c r="T4" t="n">
-        <v>4.445886678010728</v>
+        <v>3.836048253394322</v>
       </c>
       <c r="U4" t="n">
-        <v>3.89702829349309</v>
+        <v>3.550841471240072</v>
       </c>
     </row>
     <row r="5">
@@ -757,49 +757,49 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>30.23449919589339</v>
+        <v>29.77905122869172</v>
       </c>
       <c r="H5" t="n">
-        <v>28.85175240726521</v>
+        <v>29.38265492428597</v>
       </c>
       <c r="I5" t="n">
-        <v>30.63720336711061</v>
+        <v>30.37749895176984</v>
       </c>
       <c r="J5" t="n">
-        <v>14.42042650400787</v>
+        <v>13.74672413460502</v>
       </c>
       <c r="K5" t="n">
-        <v>12.96956577298168</v>
+        <v>12.94251226738266</v>
       </c>
       <c r="L5" t="n">
-        <v>12.07475467913326</v>
+        <v>11.83263083696822</v>
       </c>
       <c r="M5" t="n">
-        <v>11.93975426130646</v>
+        <v>11.92029645700293</v>
       </c>
       <c r="N5" t="n">
-        <v>11.35182481751825</v>
+        <v>11.30645704660303</v>
       </c>
       <c r="O5" t="n">
-        <v>13.73803330325069</v>
+        <v>12.91651182955531</v>
       </c>
       <c r="P5" t="n">
-        <v>11.72687744182328</v>
+        <v>11.2409589281822</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.47771911476253</v>
+        <v>13.95728886022794</v>
       </c>
       <c r="R5" t="n">
-        <v>7.137546773789428</v>
+        <v>6.740765385547463</v>
       </c>
       <c r="S5" t="n">
-        <v>6.242681522556248</v>
+        <v>5.53304710867523</v>
       </c>
       <c r="T5" t="n">
-        <v>7.027971253082842</v>
+        <v>6.062359722862009</v>
       </c>
       <c r="U5" t="n">
-        <v>4.240178307688176</v>
+        <v>3.71231389518669</v>
       </c>
     </row>
     <row r="6">
@@ -830,49 +830,49 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>17.66610494180413</v>
+        <v>16.22314052881885</v>
       </c>
       <c r="H6" t="n">
-        <v>9.531797122727772</v>
+        <v>9.669251466317764</v>
       </c>
       <c r="I6" t="n">
-        <v>7.187959646367142</v>
+        <v>6.915313083210559</v>
       </c>
       <c r="J6" t="n">
-        <v>10.9797939749381</v>
+        <v>10.905811707226</v>
       </c>
       <c r="K6" t="n">
-        <v>7.106170372894661</v>
+        <v>7.114699047871945</v>
       </c>
       <c r="L6" t="n">
-        <v>7.351652514427248</v>
+        <v>7.326151266528376</v>
       </c>
       <c r="M6" t="n">
-        <v>2.029424271711683</v>
+        <v>1.821899942230051</v>
       </c>
       <c r="N6" t="n">
-        <v>2.205724230709603</v>
+        <v>2.10745310241702</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26328568243193</v>
+        <v>1.740950870847063</v>
       </c>
       <c r="P6" t="n">
-        <v>3.237275208749704</v>
+        <v>3.117769220795161</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.598648985113025</v>
+        <v>3.49836740232333</v>
       </c>
       <c r="R6" t="n">
-        <v>2.815923805496246</v>
+        <v>2.611601550918531</v>
       </c>
       <c r="S6" t="n">
-        <v>6.378875226230167</v>
+        <v>5.686482011727781</v>
       </c>
       <c r="T6" t="n">
-        <v>3.742888396458391</v>
+        <v>3.148757539400493</v>
       </c>
       <c r="U6" t="n">
-        <v>2.635828827688857</v>
+        <v>2.624890888696819</v>
       </c>
     </row>
     <row r="7">
@@ -903,49 +903,49 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9.664183873653604</v>
+        <v>9.389083143789057</v>
       </c>
       <c r="H7" t="n">
-        <v>11.58936928770859</v>
+        <v>11.53369307927566</v>
       </c>
       <c r="I7" t="n">
-        <v>11.71549567677044</v>
+        <v>10.42480221725747</v>
       </c>
       <c r="J7" t="n">
-        <v>17.00399519259767</v>
+        <v>15.78004674874852</v>
       </c>
       <c r="K7" t="n">
-        <v>9.407001046966544</v>
+        <v>8.965261362172322</v>
       </c>
       <c r="L7" t="n">
-        <v>9.037161071408233</v>
+        <v>8.124112043301835</v>
       </c>
       <c r="M7" t="n">
-        <v>9.371169339459366</v>
+        <v>8.671568926770187</v>
       </c>
       <c r="N7" t="n">
-        <v>14.32210085986521</v>
+        <v>13.51392052056705</v>
       </c>
       <c r="O7" t="n">
-        <v>22.20951797407969</v>
+        <v>20.98753950322135</v>
       </c>
       <c r="P7" t="n">
-        <v>5.849140446196389</v>
+        <v>5.260307549971127</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.163969918514718</v>
+        <v>4.723232096699761</v>
       </c>
       <c r="R7" t="n">
-        <v>6.109702059455993</v>
+        <v>5.705007744472393</v>
       </c>
       <c r="S7" t="n">
-        <v>9.570622621575302</v>
+        <v>8.609750593325218</v>
       </c>
       <c r="T7" t="n">
-        <v>13.67853196127023</v>
+        <v>12.46219799636323</v>
       </c>
       <c r="U7" t="n">
-        <v>11.65702427259057</v>
+        <v>10.77651917343015</v>
       </c>
     </row>
     <row r="8">
@@ -976,49 +976,49 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>14.4211905334683</v>
+        <v>14.67946858873999</v>
       </c>
       <c r="H8" t="n">
-        <v>12.5698243407807</v>
+        <v>13.23687891821735</v>
       </c>
       <c r="I8" t="n">
-        <v>9.403151048744999</v>
+        <v>9.563028197980573</v>
       </c>
       <c r="J8" t="n">
-        <v>10.91069930313122</v>
+        <v>10.49363299475215</v>
       </c>
       <c r="K8" t="n">
-        <v>9.076502079333283</v>
+        <v>9.433815383312208</v>
       </c>
       <c r="L8" t="n">
-        <v>4.160534921399265</v>
+        <v>4.221859489064441</v>
       </c>
       <c r="M8" t="n">
-        <v>2.577272728160447</v>
+        <v>2.697985678423223</v>
       </c>
       <c r="N8" t="n">
-        <v>2.360105172704201</v>
+        <v>2.426623196804851</v>
       </c>
       <c r="O8" t="n">
-        <v>6.293077782958189</v>
+        <v>6.379865296790828</v>
       </c>
       <c r="P8" t="n">
-        <v>7.522400601202038</v>
+        <v>7.71898600941541</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.747289428663873</v>
+        <v>8.100578191736405</v>
       </c>
       <c r="R8" t="n">
-        <v>3.640326032225579</v>
+        <v>3.201577710641155</v>
       </c>
       <c r="S8" t="n">
-        <v>3.919730599236664</v>
+        <v>3.611553016419409</v>
       </c>
       <c r="T8" t="n">
-        <v>6.849612358163279</v>
+        <v>6.151036939719204</v>
       </c>
       <c r="U8" t="n">
-        <v>6.515975240483495</v>
+        <v>6.080354443679038</v>
       </c>
     </row>
     <row r="9">
@@ -1049,49 +1049,49 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>18.70457876536787</v>
+        <v>15.505192897314</v>
       </c>
       <c r="H9" t="n">
-        <v>10.62373037549158</v>
+        <v>10.2984692931711</v>
       </c>
       <c r="I9" t="n">
-        <v>13.30262694284786</v>
+        <v>11.52102423802414</v>
       </c>
       <c r="J9" t="n">
-        <v>8.654757712493021</v>
+        <v>8.555196100139216</v>
       </c>
       <c r="K9" t="n">
-        <v>9.233303103485726</v>
+        <v>9.629780094920939</v>
       </c>
       <c r="L9" t="n">
-        <v>10.051045954196</v>
+        <v>9.752712821642923</v>
       </c>
       <c r="M9" t="n">
-        <v>2.521225515569312</v>
+        <v>2.78774127000872</v>
       </c>
       <c r="N9" t="n">
-        <v>2.067298540751568</v>
+        <v>2.256573441894042</v>
       </c>
       <c r="O9" t="n">
-        <v>6.357798689968823</v>
+        <v>6.364949515174051</v>
       </c>
       <c r="P9" t="n">
-        <v>6.961139210173542</v>
+        <v>6.922650086075244</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.149161199605988</v>
+        <v>3.393986861522021</v>
       </c>
       <c r="R9" t="n">
-        <v>1.770345536512117</v>
+        <v>1.627575735180494</v>
       </c>
       <c r="S9" t="n">
-        <v>2.467951678795454</v>
+        <v>2.514878170463661</v>
       </c>
       <c r="T9" t="n">
-        <v>5.351461709882042</v>
+        <v>4.756560143685797</v>
       </c>
       <c r="U9" t="n">
-        <v>3.602784576750691</v>
+        <v>3.602466702692393</v>
       </c>
     </row>
     <row r="10">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>10.93168157603081</v>
+        <v>13.70331679529929</v>
       </c>
       <c r="H10" t="n">
-        <v>9.031707851874847</v>
+        <v>8.19618257260152</v>
       </c>
       <c r="I10" t="n">
-        <v>9.292478375055452</v>
+        <v>14.110052781759</v>
       </c>
       <c r="J10" t="n">
-        <v>9.311888124344014</v>
+        <v>14.19005867975948</v>
       </c>
       <c r="K10" t="n">
-        <v>8.787833781542041</v>
+        <v>13.5282099150547</v>
       </c>
       <c r="L10" t="n">
-        <v>9.869720013408838</v>
+        <v>14.06339059219667</v>
       </c>
       <c r="M10" t="n">
-        <v>7.847300884843719</v>
+        <v>11.77802406430891</v>
       </c>
       <c r="N10" t="n">
-        <v>9.142754937084934</v>
+        <v>12.9598479552604</v>
       </c>
       <c r="O10" t="n">
-        <v>8.403473468376351</v>
+        <v>13.60523470963209</v>
       </c>
       <c r="P10" t="n">
-        <v>8.922622331669995</v>
+        <v>13.79140767611473</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.762461355236762</v>
+        <v>13.89770451371136</v>
       </c>
       <c r="R10" t="n">
-        <v>7.525093323810453</v>
+        <v>14.6505716817068</v>
       </c>
       <c r="S10" t="n">
-        <v>8.039379654579065</v>
+        <v>17.65237903403213</v>
       </c>
       <c r="T10" t="n">
-        <v>10.00738638388061</v>
+        <v>20.69805036824046</v>
       </c>
       <c r="U10" t="n">
-        <v>11.90908358926579</v>
+        <v>21.52386210704303</v>
       </c>
     </row>
     <row r="11">
@@ -1195,49 +1195,49 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>15.35039646180996</v>
+        <v>15.52702666655578</v>
       </c>
       <c r="H11" t="n">
-        <v>13.70238894399943</v>
+        <v>14.0613558749947</v>
       </c>
       <c r="I11" t="n">
-        <v>13.15712019194877</v>
+        <v>12.71684424044108</v>
       </c>
       <c r="J11" t="n">
-        <v>16.88772555981763</v>
+        <v>16.17091844636681</v>
       </c>
       <c r="K11" t="n">
-        <v>12.31349079761612</v>
+        <v>11.64924528847409</v>
       </c>
       <c r="L11" t="n">
-        <v>12.49546582416075</v>
+        <v>11.84254523534939</v>
       </c>
       <c r="M11" t="n">
-        <v>9.93332960413659</v>
+        <v>9.602464005442453</v>
       </c>
       <c r="N11" t="n">
-        <v>8.329227932533785</v>
+        <v>8.312670050470878</v>
       </c>
       <c r="O11" t="n">
-        <v>6.343166531546764</v>
+        <v>6.404887130745821</v>
       </c>
       <c r="P11" t="n">
-        <v>9.47512877440437</v>
+        <v>9.064706681964216</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.335473479494579</v>
+        <v>5.35969127632747</v>
       </c>
       <c r="R11" t="n">
-        <v>4.625997461529908</v>
+        <v>4.084175975029431</v>
       </c>
       <c r="S11" t="n">
-        <v>7.978764354416631</v>
+        <v>7.44537224346388</v>
       </c>
       <c r="T11" t="n">
-        <v>5.791563139573716</v>
+        <v>5.478204655472515</v>
       </c>
       <c r="U11" t="n">
-        <v>5.044509313065404</v>
+        <v>4.870629275831217</v>
       </c>
     </row>
     <row r="12">
@@ -1268,25 +1268,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>9.052108308051752</v>
+        <v>10.67130430194965</v>
       </c>
       <c r="H12" t="n">
-        <v>7.956736957588036</v>
+        <v>8.378013851598668</v>
       </c>
       <c r="I12" t="n">
-        <v>6.415999767305849</v>
+        <v>6.175536168480654</v>
       </c>
       <c r="J12" t="n">
-        <v>2.136428999137522</v>
+        <v>2.948516615085651</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8159632509921541</v>
+        <v>0.9346748641651534</v>
       </c>
       <c r="L12" t="n">
         <v>1.003380179819061</v>
       </c>
       <c r="M12" t="n">
-        <v>0.439583609059525</v>
+        <v>0.3263418435603924</v>
       </c>
       <c r="N12" t="n">
         <v>0.05362842719167522</v>
@@ -1295,22 +1295,22 @@
         <v>0.4387370161748747</v>
       </c>
       <c r="P12" t="n">
-        <v>1.500841556639551</v>
+        <v>1.990555760172915</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.338657219787904</v>
+        <v>1.686022757045232</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8951357389805372</v>
+        <v>1.186452103737517</v>
       </c>
       <c r="S12" t="n">
-        <v>0.898240922144807</v>
+        <v>1.424999858251058</v>
       </c>
       <c r="T12" t="n">
-        <v>1.403850131683884</v>
+        <v>2.213759428879279</v>
       </c>
       <c r="U12" t="n">
-        <v>1.4801793883668</v>
+        <v>2.275708200933</v>
       </c>
     </row>
     <row r="13">
@@ -1341,49 +1341,49 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28.52297675053153</v>
+        <v>27.33131650109654</v>
       </c>
       <c r="H13" t="n">
-        <v>16.56647560378268</v>
+        <v>16.4154402250738</v>
       </c>
       <c r="I13" t="n">
-        <v>21.27613366016267</v>
+        <v>19.49669471950333</v>
       </c>
       <c r="J13" t="n">
-        <v>19.05887478225116</v>
+        <v>17.85129041622964</v>
       </c>
       <c r="K13" t="n">
-        <v>24.86676898290859</v>
+        <v>23.90569046141808</v>
       </c>
       <c r="L13" t="n">
-        <v>26.11558349585265</v>
+        <v>25.67356093829854</v>
       </c>
       <c r="M13" t="n">
-        <v>25.04658486951314</v>
+        <v>23.29188542373261</v>
       </c>
       <c r="N13" t="n">
-        <v>22.68339820014669</v>
+        <v>20.99239978657302</v>
       </c>
       <c r="O13" t="n">
-        <v>21.48239849841379</v>
+        <v>20.73195362912353</v>
       </c>
       <c r="P13" t="n">
-        <v>16.37197154313322</v>
+        <v>15.08928953654796</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.75477308691609</v>
+        <v>15.01660995692176</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93305602346821</v>
+        <v>24.47235004559079</v>
       </c>
       <c r="S13" t="n">
-        <v>16.97074696737264</v>
+        <v>14.89313118245764</v>
       </c>
       <c r="T13" t="n">
-        <v>18.84220519554673</v>
+        <v>17.34149918777257</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66305576271056</v>
+        <v>12.62468382166389</v>
       </c>
     </row>
     <row r="14">
@@ -1414,49 +1414,49 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>19.34864966453949</v>
+        <v>20.78879886529805</v>
       </c>
       <c r="H14" t="n">
-        <v>10.07512510184769</v>
+        <v>10.64367716804615</v>
       </c>
       <c r="I14" t="n">
-        <v>9.141511016617626</v>
+        <v>9.24223526658646</v>
       </c>
       <c r="J14" t="n">
-        <v>8.583179782987081</v>
+        <v>9.496693746680801</v>
       </c>
       <c r="K14" t="n">
-        <v>11.05298137244769</v>
+        <v>11.62128680856064</v>
       </c>
       <c r="L14" t="n">
-        <v>8.968786143427595</v>
+        <v>9.021744495933779</v>
       </c>
       <c r="M14" t="n">
-        <v>8.917342008020203</v>
+        <v>8.643224398533892</v>
       </c>
       <c r="N14" t="n">
-        <v>6.027423347933727</v>
+        <v>5.819688378112624</v>
       </c>
       <c r="O14" t="n">
-        <v>8.389391523353927</v>
+        <v>8.318521016344034</v>
       </c>
       <c r="P14" t="n">
-        <v>11.45296420917612</v>
+        <v>12.36002523858547</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.29383077138031</v>
+        <v>14.58541608572048</v>
       </c>
       <c r="R14" t="n">
-        <v>11.63558907363852</v>
+        <v>10.73591230971</v>
       </c>
       <c r="S14" t="n">
-        <v>11.53335581998933</v>
+        <v>10.93620490768437</v>
       </c>
       <c r="T14" t="n">
-        <v>7.637086086939081</v>
+        <v>7.240965446802843</v>
       </c>
       <c r="U14" t="n">
-        <v>19.98637816314769</v>
+        <v>18.76512809765809</v>
       </c>
     </row>
     <row r="15">
@@ -1487,49 +1487,49 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>19.74789144837095</v>
+        <v>18.84378101813952</v>
       </c>
       <c r="H15" t="n">
-        <v>20.66181430288187</v>
+        <v>21.18229502624111</v>
       </c>
       <c r="I15" t="n">
-        <v>14.97733236713283</v>
+        <v>14.5130737107177</v>
       </c>
       <c r="J15" t="n">
-        <v>12.35559787936951</v>
+        <v>11.50004050904674</v>
       </c>
       <c r="K15" t="n">
-        <v>11.8147557693036</v>
+        <v>11.7011887114345</v>
       </c>
       <c r="L15" t="n">
-        <v>8.698623083221214</v>
+        <v>8.907388257899274</v>
       </c>
       <c r="M15" t="n">
-        <v>9.276080694498646</v>
+        <v>9.030290916757995</v>
       </c>
       <c r="N15" t="n">
-        <v>11.88060000572525</v>
+        <v>11.32784544699854</v>
       </c>
       <c r="O15" t="n">
-        <v>11.07529634770266</v>
+        <v>11.09470100212463</v>
       </c>
       <c r="P15" t="n">
-        <v>10.22801857366892</v>
+        <v>9.915133149181395</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.65263622165728</v>
+        <v>11.45196089368085</v>
       </c>
       <c r="R15" t="n">
-        <v>16.71886066336152</v>
+        <v>14.93536193052367</v>
       </c>
       <c r="S15" t="n">
-        <v>16.00539521672827</v>
+        <v>14.32843736397511</v>
       </c>
       <c r="T15" t="n">
-        <v>18.7579770814624</v>
+        <v>17.2353749904977</v>
       </c>
       <c r="U15" t="n">
-        <v>15.73992172448473</v>
+        <v>14.45350523250413</v>
       </c>
     </row>
     <row r="16">
@@ -1560,49 +1560,49 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>18.34966740704425</v>
+        <v>18.07014096378136</v>
       </c>
       <c r="H16" t="n">
-        <v>12.35626027260414</v>
+        <v>12.71745348505196</v>
       </c>
       <c r="I16" t="n">
-        <v>10.07691138518003</v>
+        <v>9.498627586108178</v>
       </c>
       <c r="J16" t="n">
-        <v>14.00796931325069</v>
+        <v>13.53303417213813</v>
       </c>
       <c r="K16" t="n">
-        <v>16.03990305173708</v>
+        <v>15.74065903873748</v>
       </c>
       <c r="L16" t="n">
-        <v>10.49029703686618</v>
+        <v>10.55769822419848</v>
       </c>
       <c r="M16" t="n">
-        <v>5.796762452659581</v>
+        <v>5.652668401638987</v>
       </c>
       <c r="N16" t="n">
-        <v>9.533656588705076</v>
+        <v>9.405737350688863</v>
       </c>
       <c r="O16" t="n">
-        <v>7.195837791522974</v>
+        <v>7.010192380651954</v>
       </c>
       <c r="P16" t="n">
-        <v>7.677716004665454</v>
+        <v>7.150552250797561</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.335992743851568</v>
+        <v>7.80604074416134</v>
       </c>
       <c r="R16" t="n">
-        <v>8.105293737367125</v>
+        <v>7.799240595412477</v>
       </c>
       <c r="S16" t="n">
-        <v>8.654934937497313</v>
+        <v>7.87969246715975</v>
       </c>
       <c r="T16" t="n">
-        <v>9.992007485887596</v>
+        <v>9.210005500009839</v>
       </c>
       <c r="U16" t="n">
-        <v>8.020336251303606</v>
+        <v>7.636562588882217</v>
       </c>
     </row>
     <row r="17">
@@ -1633,49 +1633,49 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>13.86830513739722</v>
+        <v>16.32287555149923</v>
       </c>
       <c r="H17" t="n">
-        <v>6.004552888259822</v>
+        <v>5.95398265251854</v>
       </c>
       <c r="I17" t="n">
-        <v>1.414972584819333</v>
+        <v>2.073066086474656</v>
       </c>
       <c r="J17" t="n">
-        <v>1.45110783300611</v>
+        <v>1.854704367794537</v>
       </c>
       <c r="K17" t="n">
-        <v>5.894645248017326</v>
+        <v>6.542397812111702</v>
       </c>
       <c r="L17" t="n">
-        <v>3.93858986133774</v>
+        <v>4.063997660595211</v>
       </c>
       <c r="M17" t="n">
-        <v>3.691496024256829</v>
+        <v>4.224736227362635</v>
       </c>
       <c r="N17" t="n">
-        <v>4.121737009026591</v>
+        <v>4.440717248109295</v>
       </c>
       <c r="O17" t="n">
-        <v>5.959886421060231</v>
+        <v>5.905142334624732</v>
       </c>
       <c r="P17" t="n">
-        <v>3.744585391266773</v>
+        <v>3.666221206822554</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.651186643966859</v>
+        <v>3.943539305456452</v>
       </c>
       <c r="R17" t="n">
-        <v>3.135257054047837</v>
+        <v>3.063440142287257</v>
       </c>
       <c r="S17" t="n">
-        <v>3.039417303597242</v>
+        <v>3.137218072442256</v>
       </c>
       <c r="T17" t="n">
-        <v>2.630607531921849</v>
+        <v>2.366128542163502</v>
       </c>
       <c r="U17" t="n">
-        <v>2.463758180447083</v>
+        <v>2.209577648988287</v>
       </c>
     </row>
     <row r="18">
@@ -1706,49 +1706,49 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>16.33100258829324</v>
+        <v>16.24235569035427</v>
       </c>
       <c r="H18" t="n">
-        <v>16.97274825418951</v>
+        <v>17.08440578893437</v>
       </c>
       <c r="I18" t="n">
-        <v>14.25126980073478</v>
+        <v>14.91813131979412</v>
       </c>
       <c r="J18" t="n">
-        <v>10.82962479238633</v>
+        <v>10.93643608219021</v>
       </c>
       <c r="K18" t="n">
-        <v>11.22609462040279</v>
+        <v>11.39731519855702</v>
       </c>
       <c r="L18" t="n">
-        <v>6.265490852341468</v>
+        <v>6.502845779210439</v>
       </c>
       <c r="M18" t="n">
-        <v>7.86005351268596</v>
+        <v>7.601529539742352</v>
       </c>
       <c r="N18" t="n">
-        <v>7.833921341131343</v>
+        <v>7.5474155281415</v>
       </c>
       <c r="O18" t="n">
-        <v>8.367087934218425</v>
+        <v>7.812321885900583</v>
       </c>
       <c r="P18" t="n">
-        <v>10.06982666320055</v>
+        <v>9.120499929296624</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.02446557458605</v>
+        <v>16.42723572768724</v>
       </c>
       <c r="R18" t="n">
-        <v>10.93820584079304</v>
+        <v>9.246536975667578</v>
       </c>
       <c r="S18" t="n">
-        <v>8.820212694686976</v>
+        <v>7.995519682395832</v>
       </c>
       <c r="T18" t="n">
-        <v>8.140815043003105</v>
+        <v>6.955726395791244</v>
       </c>
       <c r="U18" t="n">
-        <v>2.57149083512918</v>
+        <v>2.130110379704801</v>
       </c>
     </row>
     <row r="19">
@@ -1779,49 +1779,49 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>12.00059489710375</v>
+        <v>16.31327743108502</v>
       </c>
       <c r="H19" t="n">
-        <v>6.773457794986173</v>
+        <v>7.500684432391997</v>
       </c>
       <c r="I19" t="n">
-        <v>3.735416887491292</v>
+        <v>5.261167212315333</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4862876670496825</v>
+        <v>0.320455318286717</v>
       </c>
       <c r="K19" t="n">
-        <v>1.601983733106233</v>
+        <v>1.840429871677791</v>
       </c>
       <c r="L19" t="n">
-        <v>2.537779201749887</v>
+        <v>2.773381668235749</v>
       </c>
       <c r="M19" t="n">
-        <v>3.229259841615038</v>
+        <v>3.789894108517557</v>
       </c>
       <c r="N19" t="n">
-        <v>4.585651741640649</v>
+        <v>6.424098655177827</v>
       </c>
       <c r="O19" t="n">
-        <v>5.758074143417227</v>
+        <v>6.377725197854625</v>
       </c>
       <c r="P19" t="n">
-        <v>3.320912643026488</v>
+        <v>4.289318847768731</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.473979122031413</v>
+        <v>4.344997199608932</v>
       </c>
       <c r="R19" t="n">
-        <v>3.728691602763371</v>
+        <v>4.035104030657412</v>
       </c>
       <c r="S19" t="n">
-        <v>3.385655629404662</v>
+        <v>3.330363827583431</v>
       </c>
       <c r="T19" t="n">
-        <v>2.309295846252566</v>
+        <v>1.98176856022757</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9077756442802117</v>
+        <v>0.5680278211475842</v>
       </c>
     </row>
     <row r="20">
@@ -1852,49 +1852,49 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>9.93635280057285</v>
+        <v>10.33437930231332</v>
       </c>
       <c r="H20" t="n">
-        <v>11.2186700106926</v>
+        <v>11.90910241753803</v>
       </c>
       <c r="I20" t="n">
-        <v>15.16466534104132</v>
+        <v>15.94713648569819</v>
       </c>
       <c r="J20" t="n">
-        <v>10.60016868882243</v>
+        <v>11.08534578466618</v>
       </c>
       <c r="K20" t="n">
-        <v>11.8048040383504</v>
+        <v>12.43342623305061</v>
       </c>
       <c r="L20" t="n">
-        <v>14.02953363138287</v>
+        <v>14.14997386629757</v>
       </c>
       <c r="M20" t="n">
-        <v>12.44596343965889</v>
+        <v>11.99431832383077</v>
       </c>
       <c r="N20" t="n">
-        <v>11.0456637632436</v>
+        <v>11.10175327174418</v>
       </c>
       <c r="O20" t="n">
-        <v>7.188025495665133</v>
+        <v>7.352827649169444</v>
       </c>
       <c r="P20" t="n">
-        <v>11.06529866890731</v>
+        <v>10.75439762618262</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.90710550777022</v>
+        <v>9.312105847415765</v>
       </c>
       <c r="R20" t="n">
-        <v>8.524931524402941</v>
+        <v>8.133619515945604</v>
       </c>
       <c r="S20" t="n">
-        <v>10.76051520782945</v>
+        <v>10.70809480441392</v>
       </c>
       <c r="T20" t="n">
-        <v>11.93638741705142</v>
+        <v>10.80927441339733</v>
       </c>
       <c r="U20" t="n">
-        <v>8.972115558470293</v>
+        <v>8.397816806666034</v>
       </c>
     </row>
     <row r="21">
@@ -1925,49 +1925,49 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.420625549641318</v>
+        <v>9.108291057610735</v>
       </c>
       <c r="H21" t="n">
-        <v>6.461835865307189</v>
+        <v>7.259457571211514</v>
       </c>
       <c r="I21" t="n">
-        <v>7.480139235607027</v>
+        <v>9.062765137084732</v>
       </c>
       <c r="J21" t="n">
-        <v>6.225971393756561</v>
+        <v>7.514494734819567</v>
       </c>
       <c r="K21" t="n">
-        <v>4.543924721926019</v>
+        <v>5.401738320499247</v>
       </c>
       <c r="L21" t="n">
-        <v>6.862665122512017</v>
+        <v>7.106054425569595</v>
       </c>
       <c r="M21" t="n">
-        <v>14.8534657938388</v>
+        <v>18.25363266144826</v>
       </c>
       <c r="N21" t="n">
-        <v>15.22186437645375</v>
+        <v>19.81706175336105</v>
       </c>
       <c r="O21" t="n">
-        <v>16.86898643628616</v>
+        <v>21.3804000548525</v>
       </c>
       <c r="P21" t="n">
-        <v>13.18653383544345</v>
+        <v>19.51702992310294</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.010444554604248</v>
+        <v>12.82857120952355</v>
       </c>
       <c r="R21" t="n">
-        <v>8.744004838993909</v>
+        <v>15.35828082358152</v>
       </c>
       <c r="S21" t="n">
-        <v>13.1944426380248</v>
+        <v>18.13974162595431</v>
       </c>
       <c r="T21" t="n">
-        <v>10.03032508812123</v>
+        <v>16.29323619171154</v>
       </c>
       <c r="U21" t="n">
-        <v>9.392495035387862</v>
+        <v>15.88604770650031</v>
       </c>
     </row>
     <row r="22">
@@ -1998,49 +1998,49 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10.05927668078497</v>
+        <v>10.30336700807837</v>
       </c>
       <c r="H22" t="n">
-        <v>5.249925471381114</v>
+        <v>5.93723488552844</v>
       </c>
       <c r="I22" t="n">
-        <v>7.483085201849724</v>
+        <v>8.051371750511292</v>
       </c>
       <c r="J22" t="n">
-        <v>8.524754216534792</v>
+        <v>8.437750684503129</v>
       </c>
       <c r="K22" t="n">
-        <v>8.745972563708211</v>
+        <v>8.843215362619414</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254523575120425</v>
+        <v>8.814384852131228</v>
       </c>
       <c r="M22" t="n">
-        <v>10.43584358910895</v>
+        <v>10.05696316074129</v>
       </c>
       <c r="N22" t="n">
-        <v>11.58642973183576</v>
+        <v>11.30348210869596</v>
       </c>
       <c r="O22" t="n">
-        <v>13.18796417844252</v>
+        <v>13.02669589097512</v>
       </c>
       <c r="P22" t="n">
-        <v>11.59491705278637</v>
+        <v>11.38651977390428</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.80706014139886</v>
+        <v>15.32755004124069</v>
       </c>
       <c r="R22" t="n">
-        <v>14.39477160861889</v>
+        <v>13.92823822384343</v>
       </c>
       <c r="S22" t="n">
-        <v>8.87651294924687</v>
+        <v>8.166274044259318</v>
       </c>
       <c r="T22" t="n">
-        <v>9.207431317668823</v>
+        <v>8.56781403320192</v>
       </c>
       <c r="U22" t="n">
-        <v>8.007729725423992</v>
+        <v>7.328100086829585</v>
       </c>
     </row>
     <row r="23">
@@ -2071,49 +2071,49 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>15.88176788579539</v>
+        <v>15.14766106091487</v>
       </c>
       <c r="H23" t="n">
-        <v>11.94713875793797</v>
+        <v>12.6524699098615</v>
       </c>
       <c r="I23" t="n">
-        <v>12.13606770588633</v>
+        <v>13.26609706492629</v>
       </c>
       <c r="J23" t="n">
-        <v>11.01753007392043</v>
+        <v>11.04818156517143</v>
       </c>
       <c r="K23" t="n">
-        <v>12.49985058671489</v>
+        <v>13.47394422057949</v>
       </c>
       <c r="L23" t="n">
-        <v>15.31713909713142</v>
+        <v>16.04093491012113</v>
       </c>
       <c r="M23" t="n">
-        <v>13.89073653868584</v>
+        <v>13.50124405426109</v>
       </c>
       <c r="N23" t="n">
-        <v>15.06137789935864</v>
+        <v>14.1830072871888</v>
       </c>
       <c r="O23" t="n">
-        <v>13.96366183918871</v>
+        <v>13.74946882429282</v>
       </c>
       <c r="P23" t="n">
-        <v>12.63404521711388</v>
+        <v>12.14725465153277</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.16671251595767</v>
+        <v>12.05773384331897</v>
       </c>
       <c r="R23" t="n">
-        <v>16.34621532503357</v>
+        <v>15.6624208766818</v>
       </c>
       <c r="S23" t="n">
-        <v>15.75193545805432</v>
+        <v>15.43224756975263</v>
       </c>
       <c r="T23" t="n">
-        <v>14.46785845924327</v>
+        <v>13.33056659496676</v>
       </c>
       <c r="U23" t="n">
-        <v>12.07157007200981</v>
+        <v>11.19636045815872</v>
       </c>
     </row>
     <row r="24">
@@ -2144,49 +2144,49 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.48355193005655</v>
+        <v>10.69628244026855</v>
       </c>
       <c r="H24" t="n">
-        <v>28.55664049472708</v>
+        <v>28.35931148318637</v>
       </c>
       <c r="I24" t="n">
-        <v>18.53583196270932</v>
+        <v>17.93044923951486</v>
       </c>
       <c r="J24" t="n">
-        <v>16.50962723102143</v>
+        <v>15.89682221900268</v>
       </c>
       <c r="K24" t="n">
-        <v>17.80042473193146</v>
+        <v>16.53710219341107</v>
       </c>
       <c r="L24" t="n">
-        <v>15.55210496544268</v>
+        <v>15.46324580409485</v>
       </c>
       <c r="M24" t="n">
-        <v>12.73263192820571</v>
+        <v>12.75129390851688</v>
       </c>
       <c r="N24" t="n">
-        <v>8.659592964900481</v>
+        <v>8.557702227920142</v>
       </c>
       <c r="O24" t="n">
-        <v>8.11530509177609</v>
+        <v>7.802234162806382</v>
       </c>
       <c r="P24" t="n">
-        <v>7.769539237878396</v>
+        <v>7.305216343780829</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.88754537865579</v>
+        <v>10.18667301367063</v>
       </c>
       <c r="R24" t="n">
-        <v>9.865452763097007</v>
+        <v>8.984555761221657</v>
       </c>
       <c r="S24" t="n">
-        <v>10.50994427050006</v>
+        <v>9.27270991901559</v>
       </c>
       <c r="T24" t="n">
-        <v>10.53727055885302</v>
+        <v>9.278146809815793</v>
       </c>
       <c r="U24" t="n">
-        <v>10.98366919403601</v>
+        <v>9.18991008686228</v>
       </c>
     </row>
     <row r="25">
@@ -2217,49 +2217,49 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>12.06563034892621</v>
+        <v>12.11729246861051</v>
       </c>
       <c r="H25" t="n">
-        <v>16.21196667392651</v>
+        <v>16.38405181578103</v>
       </c>
       <c r="I25" t="n">
-        <v>15.19192347196536</v>
+        <v>15.64136514900701</v>
       </c>
       <c r="J25" t="n">
-        <v>15.94894078720569</v>
+        <v>17.08022410756998</v>
       </c>
       <c r="K25" t="n">
-        <v>14.44857565347604</v>
+        <v>14.83272659137242</v>
       </c>
       <c r="L25" t="n">
-        <v>14.52762796047734</v>
+        <v>14.60027322724892</v>
       </c>
       <c r="M25" t="n">
-        <v>21.16757082365893</v>
+        <v>21.44626095497471</v>
       </c>
       <c r="N25" t="n">
-        <v>22.9730796391815</v>
+        <v>22.44307089340573</v>
       </c>
       <c r="O25" t="n">
-        <v>20.15846555179932</v>
+        <v>20.41995337300663</v>
       </c>
       <c r="P25" t="n">
-        <v>14.60661223172365</v>
+        <v>14.30887306900703</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.00996170949997</v>
+        <v>17.21783237874463</v>
       </c>
       <c r="R25" t="n">
-        <v>14.22794745255055</v>
+        <v>13.81717801884011</v>
       </c>
       <c r="S25" t="n">
-        <v>18.04183056332375</v>
+        <v>17.71114979376322</v>
       </c>
       <c r="T25" t="n">
-        <v>33.00048203923943</v>
+        <v>32.85608184698777</v>
       </c>
       <c r="U25" t="n">
-        <v>21.34051969790016</v>
+        <v>21.65457021298536</v>
       </c>
     </row>
     <row r="26">
@@ -2290,49 +2290,49 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8.735266269320638</v>
+        <v>8.712398554166207</v>
       </c>
       <c r="H26" t="n">
-        <v>7.598738324578245</v>
+        <v>8.438099244344913</v>
       </c>
       <c r="I26" t="n">
-        <v>6.148174830820246</v>
+        <v>5.934448472107754</v>
       </c>
       <c r="J26" t="n">
-        <v>9.150075387788903</v>
+        <v>8.885999320609081</v>
       </c>
       <c r="K26" t="n">
-        <v>8.99332915017688</v>
+        <v>8.411559854894232</v>
       </c>
       <c r="L26" t="n">
-        <v>11.02757028705602</v>
+        <v>10.6679525896341</v>
       </c>
       <c r="M26" t="n">
-        <v>11.43750930489386</v>
+        <v>11.31476588314212</v>
       </c>
       <c r="N26" t="n">
-        <v>8.120593329917783</v>
+        <v>7.797884798360536</v>
       </c>
       <c r="O26" t="n">
-        <v>7.252080899774382</v>
+        <v>6.882631294830895</v>
       </c>
       <c r="P26" t="n">
-        <v>11.3854554385983</v>
+        <v>11.12426368490645</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.308928346361286</v>
+        <v>8.7832028953624</v>
       </c>
       <c r="R26" t="n">
-        <v>9.099939024460262</v>
+        <v>8.805051668444641</v>
       </c>
       <c r="S26" t="n">
-        <v>5.669074454288755</v>
+        <v>5.543339023125311</v>
       </c>
       <c r="T26" t="n">
-        <v>4.889033991546703</v>
+        <v>4.338281918700967</v>
       </c>
       <c r="U26" t="n">
-        <v>9.042417106591584</v>
+        <v>8.423505332742794</v>
       </c>
     </row>
     <row r="27">
@@ -2363,49 +2363,49 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9.045420466048961</v>
+        <v>8.518368755441813</v>
       </c>
       <c r="H27" t="n">
-        <v>9.539179013399202</v>
+        <v>9.657687168510719</v>
       </c>
       <c r="I27" t="n">
-        <v>10.13360631705043</v>
+        <v>9.535511416899244</v>
       </c>
       <c r="J27" t="n">
-        <v>7.974758509265881</v>
+        <v>7.598625063055876</v>
       </c>
       <c r="K27" t="n">
-        <v>4.251040216022013</v>
+        <v>4.121643953298049</v>
       </c>
       <c r="L27" t="n">
-        <v>4.049425726744178</v>
+        <v>3.891664338993093</v>
       </c>
       <c r="M27" t="n">
-        <v>3.544687927048354</v>
+        <v>3.40387785365632</v>
       </c>
       <c r="N27" t="n">
-        <v>4.337964736754596</v>
+        <v>4.193564710730061</v>
       </c>
       <c r="O27" t="n">
-        <v>3.86822100923534</v>
+        <v>3.576304385870912</v>
       </c>
       <c r="P27" t="n">
-        <v>6.299858841833228</v>
+        <v>5.865681115338847</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.291743297258138</v>
+        <v>4.070631535478094</v>
       </c>
       <c r="R27" t="n">
-        <v>5.27797268862364</v>
+        <v>4.799834016905907</v>
       </c>
       <c r="S27" t="n">
-        <v>2.735139993024555</v>
+        <v>2.743324110985931</v>
       </c>
       <c r="T27" t="n">
-        <v>5.040145473446303</v>
+        <v>4.72390014646044</v>
       </c>
       <c r="U27" t="n">
-        <v>8.241324336009669</v>
+        <v>7.655293577424055</v>
       </c>
     </row>
     <row r="28">
@@ -2436,49 +2436,49 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>17.89304233710715</v>
+        <v>17.29187522419878</v>
       </c>
       <c r="H28" t="n">
-        <v>7.391268205961023</v>
+        <v>6.80784566997557</v>
       </c>
       <c r="I28" t="n">
-        <v>7.566456879226823</v>
+        <v>7.418177598504727</v>
       </c>
       <c r="J28" t="n">
-        <v>2.613423346471882</v>
+        <v>2.407462440341542</v>
       </c>
       <c r="K28" t="n">
-        <v>2.016572504499418</v>
+        <v>2.04423533072948</v>
       </c>
       <c r="L28" t="n">
-        <v>2.798029520520898</v>
+        <v>2.798497608744011</v>
       </c>
       <c r="M28" t="n">
-        <v>6.347190534002538</v>
+        <v>6.398615189125978</v>
       </c>
       <c r="N28" t="n">
-        <v>4.122414519940732</v>
+        <v>3.88292455783643</v>
       </c>
       <c r="O28" t="n">
-        <v>3.442010869626282</v>
+        <v>3.209764461468107</v>
       </c>
       <c r="P28" t="n">
-        <v>4.622540572888134</v>
+        <v>4.600645977376456</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.837100181659418</v>
+        <v>3.676273594643447</v>
       </c>
       <c r="R28" t="n">
-        <v>3.519934700252559</v>
+        <v>3.383374318755815</v>
       </c>
       <c r="S28" t="n">
-        <v>4.943861575978194</v>
+        <v>4.999476007935424</v>
       </c>
       <c r="T28" t="n">
-        <v>4.405504605630062</v>
+        <v>4.48164420476235</v>
       </c>
       <c r="U28" t="n">
-        <v>2.166153626807314</v>
+        <v>1.733279339559779</v>
       </c>
     </row>
     <row r="29">
@@ -2509,49 +2509,49 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.366943889219167</v>
+        <v>12.49597417629429</v>
       </c>
       <c r="H29" t="n">
-        <v>3.170549093001048</v>
+        <v>2.104956757651023</v>
       </c>
       <c r="I29" t="n">
-        <v>2.449655644360381</v>
+        <v>3.227338144508581</v>
       </c>
       <c r="J29" t="n">
-        <v>2.668768327875339</v>
+        <v>6.105991476939187</v>
       </c>
       <c r="K29" t="n">
-        <v>6.761888362523427</v>
+        <v>9.152483673090426</v>
       </c>
       <c r="L29" t="n">
-        <v>6.521339386787367</v>
+        <v>7.538285394606372</v>
       </c>
       <c r="M29" t="n">
-        <v>4.611283601043206</v>
+        <v>6.37622617562459</v>
       </c>
       <c r="N29" t="n">
-        <v>6.682116722765858</v>
+        <v>9.851656032550547</v>
       </c>
       <c r="O29" t="n">
-        <v>5.688371033011396</v>
+        <v>8.599012166931914</v>
       </c>
       <c r="P29" t="n">
-        <v>7.087422045758276</v>
+        <v>9.945363695429009</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.660175746743334</v>
+        <v>16.8297396332907</v>
       </c>
       <c r="R29" t="n">
-        <v>8.104909621072556</v>
+        <v>16.09583251271022</v>
       </c>
       <c r="S29" t="n">
-        <v>5.569693268750485</v>
+        <v>13.53927713222398</v>
       </c>
       <c r="T29" t="n">
-        <v>6.079804809542519</v>
+        <v>12.095628813054</v>
       </c>
       <c r="U29" t="n">
-        <v>4.139160983870178</v>
+        <v>11.78167319852587</v>
       </c>
     </row>
     <row r="30">
@@ -2582,49 +2582,49 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9.18034535817854</v>
+        <v>11.96065058523524</v>
       </c>
       <c r="H30" t="n">
-        <v>11.02223786544204</v>
+        <v>8.354662541418504</v>
       </c>
       <c r="I30" t="n">
-        <v>17.21677996960159</v>
+        <v>20.3203934966694</v>
       </c>
       <c r="J30" t="n">
-        <v>8.369669028423358</v>
+        <v>9.682824900257799</v>
       </c>
       <c r="K30" t="n">
-        <v>6.719155591068131</v>
+        <v>8.950548261279948</v>
       </c>
       <c r="L30" t="n">
-        <v>11.50991063397505</v>
+        <v>13.29943572993426</v>
       </c>
       <c r="M30" t="n">
-        <v>13.94052413169111</v>
+        <v>16.37201260711674</v>
       </c>
       <c r="N30" t="n">
-        <v>10.75493584723457</v>
+        <v>13.76413922239429</v>
       </c>
       <c r="O30" t="n">
-        <v>10.96490973556088</v>
+        <v>13.21644315748548</v>
       </c>
       <c r="P30" t="n">
-        <v>10.41012025760586</v>
+        <v>12.26122994299109</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.088350150538218</v>
+        <v>9.211450316570181</v>
       </c>
       <c r="R30" t="n">
-        <v>7.873758460620834</v>
+        <v>10.01478177433158</v>
       </c>
       <c r="S30" t="n">
-        <v>7.637206621306813</v>
+        <v>9.364890060718732</v>
       </c>
       <c r="T30" t="n">
-        <v>6.316134450869421</v>
+        <v>9.161674161045088</v>
       </c>
       <c r="U30" t="n">
-        <v>6.883100045839488</v>
+        <v>9.427191613688874</v>
       </c>
     </row>
     <row r="31">
@@ -2655,49 +2655,49 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.409355658515635</v>
+        <v>6.254928818780242</v>
       </c>
       <c r="H31" t="n">
-        <v>7.089227970356441</v>
+        <v>7.513240635863696</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2956474134354</v>
+        <v>6.511315486406047</v>
       </c>
       <c r="J31" t="n">
-        <v>7.274704601221045</v>
+        <v>7.373260416680968</v>
       </c>
       <c r="K31" t="n">
-        <v>6.857899408727862</v>
+        <v>7.053421963829715</v>
       </c>
       <c r="L31" t="n">
-        <v>4.190809067845869</v>
+        <v>4.888946688940908</v>
       </c>
       <c r="M31" t="n">
-        <v>6.3365614858455</v>
+        <v>6.745676337986815</v>
       </c>
       <c r="N31" t="n">
-        <v>4.878042149122658</v>
+        <v>5.251273615845514</v>
       </c>
       <c r="O31" t="n">
-        <v>4.524813123480706</v>
+        <v>5.057739880763926</v>
       </c>
       <c r="P31" t="n">
-        <v>5.838441020070796</v>
+        <v>6.826407267249071</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.827541516853445</v>
+        <v>6.875557363065063</v>
       </c>
       <c r="R31" t="n">
-        <v>6.712245404316697</v>
+        <v>7.023372957729676</v>
       </c>
       <c r="S31" t="n">
-        <v>9.313204845963146</v>
+        <v>9.469019349127866</v>
       </c>
       <c r="T31" t="n">
-        <v>8.085363058413366</v>
+        <v>8.486380431048651</v>
       </c>
       <c r="U31" t="n">
-        <v>7.923424877280369</v>
+        <v>8.124244292754364</v>
       </c>
     </row>
     <row r="32">
@@ -2728,49 +2728,49 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>7.515976659867568</v>
+        <v>8.248735731901945</v>
       </c>
       <c r="H32" t="n">
-        <v>3.623465862575533</v>
+        <v>3.849957669941248</v>
       </c>
       <c r="I32" t="n">
-        <v>5.706312362439411</v>
+        <v>5.243244575785646</v>
       </c>
       <c r="J32" t="n">
-        <v>4.80676685268042</v>
+        <v>4.818302501395634</v>
       </c>
       <c r="K32" t="n">
-        <v>7.42389704243153</v>
+        <v>7.387762374030797</v>
       </c>
       <c r="L32" t="n">
-        <v>7.431045074149929</v>
+        <v>7.929036854303676</v>
       </c>
       <c r="M32" t="n">
-        <v>5.894324859373576</v>
+        <v>5.896274071044512</v>
       </c>
       <c r="N32" t="n">
-        <v>9.701206680004701</v>
+        <v>10.22305343301759</v>
       </c>
       <c r="O32" t="n">
-        <v>9.492147512851725</v>
+        <v>9.454848664202412</v>
       </c>
       <c r="P32" t="n">
-        <v>7.123173978638904</v>
+        <v>6.857298915539502</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.515484236693037</v>
+        <v>6.82099527627705</v>
       </c>
       <c r="R32" t="n">
-        <v>4.695528342268976</v>
+        <v>5.474048965889717</v>
       </c>
       <c r="S32" t="n">
-        <v>5.636741888614571</v>
+        <v>5.661829858791204</v>
       </c>
       <c r="T32" t="n">
-        <v>5.124362107055731</v>
+        <v>4.717623057805247</v>
       </c>
       <c r="U32" t="n">
-        <v>5.48987834370665</v>
+        <v>5.188661263884123</v>
       </c>
     </row>
   </sheetData>
